--- a/2.xlsx
+++ b/2.xlsx
@@ -109,9 +109,6 @@
     <t>Сумма выручки</t>
   </si>
   <si>
-    <t>.Краснодар 2 v3 Шишечкина ВС Закрыт</t>
-  </si>
-  <si>
     <t>.Краснодар 2 Кречун ЮА закрыт</t>
   </si>
   <si>
@@ -137,6 +134,9 @@
   </si>
   <si>
     <t>Краснодар 2 Оганесян ОЮ</t>
+  </si>
+  <si>
+    <t>Краснодар 2 Шишечкина ВС</t>
   </si>
   <si>
     <t>Краснодар 3</t>
@@ -354,15 +354,6 @@
     <xf numFmtId="0" fontId="0" borderId="5" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="51" fontId="0" borderId="5" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="right" vertical="top" wrapText="0"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" borderId="5" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="right" vertical="top" wrapText="0"/>
-    </xf>
-    <xf numFmtId="52" fontId="0" borderId="5" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="right" vertical="top" wrapText="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" borderId="5" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="top" wrapText="0"/>
     </xf>
@@ -374,6 +365,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" borderId="8" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="top" wrapText="0"/>
+    </xf>
+    <xf numFmtId="51" fontId="0" borderId="5" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="right" vertical="top" wrapText="0"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" borderId="5" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="right" vertical="top" wrapText="0"/>
+    </xf>
+    <xf numFmtId="52" fontId="0" borderId="5" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="right" vertical="top" wrapText="0"/>
     </xf>
     <xf numFmtId="51" fontId="3" borderId="5" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="right" vertical="top" wrapText="0"/>
@@ -711,95 +711,59 @@
       </c>
       <c r="B9" s="10" t="e"/>
       <c r="C9" s="10" t="e"/>
-      <c r="D9" s="11" t="n">
-        <v>12215.836</v>
-      </c>
-      <c r="E9" s="12" t="n">
-        <v>1961993.15</v>
-      </c>
-      <c r="F9" s="12" t="e"/>
-      <c r="G9" s="12" t="e"/>
-      <c r="H9" s="11" t="n">
-        <v>12637.579</v>
-      </c>
-      <c r="I9" s="12" t="n">
-        <v>2083229.76</v>
-      </c>
-      <c r="J9" s="11" t="n">
-        <v>14582.197</v>
-      </c>
-      <c r="K9" s="12" t="n">
-        <v>2547694.19</v>
-      </c>
-      <c r="L9" s="11" t="n">
-        <v>14315.976</v>
-      </c>
-      <c r="M9" s="12" t="n">
-        <v>2587443.44</v>
-      </c>
-      <c r="N9" s="11" t="n">
-        <v>14785.378</v>
-      </c>
-      <c r="O9" s="12" t="n">
-        <v>2797528.87</v>
-      </c>
-      <c r="P9" s="11" t="n">
-        <v>15915.838</v>
-      </c>
-      <c r="Q9" s="12" t="n">
-        <v>2824290.42</v>
-      </c>
-      <c r="R9" s="13" t="n">
-        <v>15519.4</v>
-      </c>
-      <c r="S9" s="12" t="n">
-        <v>2746857.7</v>
-      </c>
-      <c r="T9" s="11" t="n">
-        <v>16148.956</v>
-      </c>
-      <c r="U9" s="12" t="n">
-        <v>2803499.37</v>
-      </c>
-      <c r="V9" s="11" t="n">
-        <v>15027.691</v>
-      </c>
-      <c r="W9" s="12" t="n">
-        <v>2905610.71</v>
-      </c>
-      <c r="X9" s="11" t="n">
-        <v>16163.434</v>
-      </c>
-      <c r="Y9" s="12" t="n">
-        <v>3103463.25</v>
-      </c>
-      <c r="Z9" s="11" t="n">
-        <v>8461.982</v>
-      </c>
-      <c r="AA9" s="12" t="n">
-        <v>1643610.55</v>
-      </c>
-      <c r="AB9" s="14" t="e"/>
-      <c r="AC9" s="14" t="e"/>
-      <c r="AD9" s="14" t="e"/>
-      <c r="AE9" s="14" t="e"/>
-      <c r="AF9" s="14" t="e"/>
-      <c r="AG9" s="14" t="e"/>
-      <c r="AH9" s="14" t="e"/>
-      <c r="AI9" s="14" t="e"/>
-      <c r="AJ9" s="14" t="e"/>
-      <c r="AK9" s="14" t="e"/>
-      <c r="AL9" s="14" t="e"/>
-      <c r="AM9" s="14" t="e"/>
-      <c r="AN9" s="14" t="e"/>
-      <c r="AO9" s="14" t="e"/>
-      <c r="AP9" s="14" t="e"/>
-      <c r="AQ9" s="14" t="e"/>
-      <c r="AR9" s="11" t="n">
-        <v>155774.267</v>
-      </c>
-      <c r="AS9" s="12" t="n">
-        <v>28005221.41</v>
+      <c r="D9" s="11" t="e"/>
+      <c r="E9" s="12" t="e"/>
+      <c r="F9" s="13" t="e"/>
+      <c r="G9" s="14" t="e"/>
+      <c r="H9" s="11" t="e"/>
+      <c r="I9" s="11" t="e"/>
+      <c r="J9" s="11" t="e"/>
+      <c r="K9" s="11" t="e"/>
+      <c r="L9" s="11" t="e"/>
+      <c r="M9" s="11" t="e"/>
+      <c r="N9" s="11" t="e"/>
+      <c r="O9" s="11" t="e"/>
+      <c r="P9" s="11" t="e"/>
+      <c r="Q9" s="11" t="e"/>
+      <c r="R9" s="11" t="e"/>
+      <c r="S9" s="11" t="e"/>
+      <c r="T9" s="11" t="e"/>
+      <c r="U9" s="11" t="e"/>
+      <c r="V9" s="11" t="e"/>
+      <c r="W9" s="11" t="e"/>
+      <c r="X9" s="11" t="e"/>
+      <c r="Y9" s="11" t="e"/>
+      <c r="Z9" s="15" t="n">
+        <v>6194.922</v>
+      </c>
+      <c r="AA9" s="16" t="n">
+        <v>1189361.38</v>
+      </c>
+      <c r="AB9" s="15" t="n">
+        <v>16055.214</v>
+      </c>
+      <c r="AC9" s="16" t="n">
+        <v>3363541.44</v>
+      </c>
+      <c r="AD9" s="11" t="e"/>
+      <c r="AE9" s="11" t="e"/>
+      <c r="AF9" s="11" t="e"/>
+      <c r="AG9" s="11" t="e"/>
+      <c r="AH9" s="11" t="e"/>
+      <c r="AI9" s="11" t="e"/>
+      <c r="AJ9" s="11" t="e"/>
+      <c r="AK9" s="11" t="e"/>
+      <c r="AL9" s="11" t="e"/>
+      <c r="AM9" s="11" t="e"/>
+      <c r="AN9" s="11" t="e"/>
+      <c r="AO9" s="11" t="e"/>
+      <c r="AP9" s="11" t="e"/>
+      <c r="AQ9" s="11" t="e"/>
+      <c r="AR9" s="15" t="n">
+        <v>22250.136</v>
+      </c>
+      <c r="AS9" s="16" t="n">
+        <v>4552902.82</v>
       </c>
     </row>
     <row r="10" ht="11" customHeight="true">
@@ -808,59 +772,59 @@
       </c>
       <c r="B10" s="10" t="e"/>
       <c r="C10" s="10" t="e"/>
-      <c r="D10" s="14" t="e"/>
-      <c r="E10" s="15" t="e"/>
-      <c r="F10" s="16" t="e"/>
-      <c r="G10" s="17" t="e"/>
-      <c r="H10" s="14" t="e"/>
-      <c r="I10" s="14" t="e"/>
-      <c r="J10" s="14" t="e"/>
-      <c r="K10" s="14" t="e"/>
-      <c r="L10" s="14" t="e"/>
-      <c r="M10" s="14" t="e"/>
-      <c r="N10" s="14" t="e"/>
-      <c r="O10" s="14" t="e"/>
-      <c r="P10" s="14" t="e"/>
-      <c r="Q10" s="14" t="e"/>
-      <c r="R10" s="14" t="e"/>
-      <c r="S10" s="14" t="e"/>
-      <c r="T10" s="14" t="e"/>
-      <c r="U10" s="14" t="e"/>
-      <c r="V10" s="14" t="e"/>
-      <c r="W10" s="14" t="e"/>
-      <c r="X10" s="14" t="e"/>
-      <c r="Y10" s="14" t="e"/>
-      <c r="Z10" s="11" t="n">
-        <v>6194.922</v>
-      </c>
-      <c r="AA10" s="12" t="n">
-        <v>1189361.38</v>
-      </c>
-      <c r="AB10" s="11" t="n">
-        <v>16055.214</v>
-      </c>
-      <c r="AC10" s="12" t="n">
-        <v>3363541.44</v>
-      </c>
-      <c r="AD10" s="14" t="e"/>
-      <c r="AE10" s="14" t="e"/>
-      <c r="AF10" s="14" t="e"/>
-      <c r="AG10" s="14" t="e"/>
-      <c r="AH10" s="14" t="e"/>
-      <c r="AI10" s="14" t="e"/>
-      <c r="AJ10" s="14" t="e"/>
-      <c r="AK10" s="14" t="e"/>
-      <c r="AL10" s="14" t="e"/>
-      <c r="AM10" s="14" t="e"/>
-      <c r="AN10" s="14" t="e"/>
-      <c r="AO10" s="14" t="e"/>
-      <c r="AP10" s="14" t="e"/>
-      <c r="AQ10" s="14" t="e"/>
-      <c r="AR10" s="11" t="n">
-        <v>22250.136</v>
-      </c>
-      <c r="AS10" s="12" t="n">
-        <v>4552902.82</v>
+      <c r="D10" s="11" t="e"/>
+      <c r="E10" s="12" t="e"/>
+      <c r="F10" s="13" t="e"/>
+      <c r="G10" s="14" t="e"/>
+      <c r="H10" s="11" t="e"/>
+      <c r="I10" s="11" t="e"/>
+      <c r="J10" s="11" t="e"/>
+      <c r="K10" s="11" t="e"/>
+      <c r="L10" s="11" t="e"/>
+      <c r="M10" s="11" t="e"/>
+      <c r="N10" s="11" t="e"/>
+      <c r="O10" s="11" t="e"/>
+      <c r="P10" s="11" t="e"/>
+      <c r="Q10" s="11" t="e"/>
+      <c r="R10" s="11" t="e"/>
+      <c r="S10" s="11" t="e"/>
+      <c r="T10" s="11" t="e"/>
+      <c r="U10" s="11" t="e"/>
+      <c r="V10" s="11" t="e"/>
+      <c r="W10" s="11" t="e"/>
+      <c r="X10" s="11" t="e"/>
+      <c r="Y10" s="11" t="e"/>
+      <c r="Z10" s="15" t="n">
+        <v>8442.821</v>
+      </c>
+      <c r="AA10" s="16" t="n">
+        <v>1545844.45</v>
+      </c>
+      <c r="AB10" s="16" t="n">
+        <v>21485.36</v>
+      </c>
+      <c r="AC10" s="16" t="n">
+        <v>4576032.87</v>
+      </c>
+      <c r="AD10" s="11" t="e"/>
+      <c r="AE10" s="11" t="e"/>
+      <c r="AF10" s="11" t="e"/>
+      <c r="AG10" s="11" t="e"/>
+      <c r="AH10" s="11" t="e"/>
+      <c r="AI10" s="11" t="e"/>
+      <c r="AJ10" s="11" t="e"/>
+      <c r="AK10" s="11" t="e"/>
+      <c r="AL10" s="11" t="e"/>
+      <c r="AM10" s="11" t="e"/>
+      <c r="AN10" s="11" t="e"/>
+      <c r="AO10" s="11" t="e"/>
+      <c r="AP10" s="11" t="e"/>
+      <c r="AQ10" s="11" t="e"/>
+      <c r="AR10" s="15" t="n">
+        <v>29928.181</v>
+      </c>
+      <c r="AS10" s="16" t="n">
+        <v>6121877.32</v>
       </c>
     </row>
     <row r="11" ht="11" customHeight="true">
@@ -869,59 +833,95 @@
       </c>
       <c r="B11" s="10" t="e"/>
       <c r="C11" s="10" t="e"/>
-      <c r="D11" s="14" t="e"/>
-      <c r="E11" s="15" t="e"/>
+      <c r="D11" s="15" t="n">
+        <v>16443.866</v>
+      </c>
+      <c r="E11" s="16" t="n">
+        <v>2637664.59</v>
+      </c>
       <c r="F11" s="16" t="e"/>
-      <c r="G11" s="17" t="e"/>
-      <c r="H11" s="14" t="e"/>
-      <c r="I11" s="14" t="e"/>
-      <c r="J11" s="14" t="e"/>
-      <c r="K11" s="14" t="e"/>
-      <c r="L11" s="14" t="e"/>
-      <c r="M11" s="14" t="e"/>
-      <c r="N11" s="14" t="e"/>
-      <c r="O11" s="14" t="e"/>
-      <c r="P11" s="14" t="e"/>
-      <c r="Q11" s="14" t="e"/>
-      <c r="R11" s="14" t="e"/>
-      <c r="S11" s="14" t="e"/>
-      <c r="T11" s="14" t="e"/>
-      <c r="U11" s="14" t="e"/>
-      <c r="V11" s="14" t="e"/>
-      <c r="W11" s="14" t="e"/>
-      <c r="X11" s="14" t="e"/>
-      <c r="Y11" s="14" t="e"/>
-      <c r="Z11" s="11" t="n">
-        <v>8442.821</v>
-      </c>
-      <c r="AA11" s="12" t="n">
-        <v>1545844.45</v>
-      </c>
-      <c r="AB11" s="12" t="n">
-        <v>21485.36</v>
-      </c>
-      <c r="AC11" s="12" t="n">
-        <v>4576032.87</v>
-      </c>
-      <c r="AD11" s="14" t="e"/>
-      <c r="AE11" s="14" t="e"/>
-      <c r="AF11" s="14" t="e"/>
-      <c r="AG11" s="14" t="e"/>
-      <c r="AH11" s="14" t="e"/>
-      <c r="AI11" s="14" t="e"/>
-      <c r="AJ11" s="14" t="e"/>
-      <c r="AK11" s="14" t="e"/>
-      <c r="AL11" s="14" t="e"/>
-      <c r="AM11" s="14" t="e"/>
-      <c r="AN11" s="14" t="e"/>
-      <c r="AO11" s="14" t="e"/>
-      <c r="AP11" s="14" t="e"/>
-      <c r="AQ11" s="14" t="e"/>
-      <c r="AR11" s="11" t="n">
-        <v>29928.181</v>
-      </c>
-      <c r="AS11" s="12" t="n">
-        <v>6121877.32</v>
+      <c r="G11" s="16" t="e"/>
+      <c r="H11" s="15" t="n">
+        <v>17824.125</v>
+      </c>
+      <c r="I11" s="16" t="n">
+        <v>3026078.48</v>
+      </c>
+      <c r="J11" s="15" t="n">
+        <v>20078.582</v>
+      </c>
+      <c r="K11" s="16" t="n">
+        <v>3562950.22</v>
+      </c>
+      <c r="L11" s="15" t="n">
+        <v>18840.351</v>
+      </c>
+      <c r="M11" s="16" t="n">
+        <v>3529974.46</v>
+      </c>
+      <c r="N11" s="15" t="n">
+        <v>18331.234</v>
+      </c>
+      <c r="O11" s="16" t="n">
+        <v>3506010.2</v>
+      </c>
+      <c r="P11" s="15" t="n">
+        <v>19255.436</v>
+      </c>
+      <c r="Q11" s="16" t="n">
+        <v>3403627.56</v>
+      </c>
+      <c r="R11" s="15" t="n">
+        <v>20220.494</v>
+      </c>
+      <c r="S11" s="16" t="n">
+        <v>3645331.91</v>
+      </c>
+      <c r="T11" s="15" t="n">
+        <v>19753.376</v>
+      </c>
+      <c r="U11" s="16" t="n">
+        <v>3515110.75</v>
+      </c>
+      <c r="V11" s="15" t="n">
+        <v>19572.608</v>
+      </c>
+      <c r="W11" s="16" t="n">
+        <v>3811369.25</v>
+      </c>
+      <c r="X11" s="15" t="n">
+        <v>19792.178</v>
+      </c>
+      <c r="Y11" s="16" t="n">
+        <v>3883419.94</v>
+      </c>
+      <c r="Z11" s="15" t="n">
+        <v>11460.512</v>
+      </c>
+      <c r="AA11" s="16" t="n">
+        <v>2304695.12</v>
+      </c>
+      <c r="AB11" s="11" t="e"/>
+      <c r="AC11" s="11" t="e"/>
+      <c r="AD11" s="11" t="e"/>
+      <c r="AE11" s="11" t="e"/>
+      <c r="AF11" s="11" t="e"/>
+      <c r="AG11" s="11" t="e"/>
+      <c r="AH11" s="11" t="e"/>
+      <c r="AI11" s="11" t="e"/>
+      <c r="AJ11" s="11" t="e"/>
+      <c r="AK11" s="11" t="e"/>
+      <c r="AL11" s="11" t="e"/>
+      <c r="AM11" s="11" t="e"/>
+      <c r="AN11" s="11" t="e"/>
+      <c r="AO11" s="11" t="e"/>
+      <c r="AP11" s="11" t="e"/>
+      <c r="AQ11" s="11" t="e"/>
+      <c r="AR11" s="15" t="n">
+        <v>201572.762</v>
+      </c>
+      <c r="AS11" s="16" t="n">
+        <v>36826232.48</v>
       </c>
     </row>
     <row r="12" ht="11" customHeight="true">
@@ -930,95 +930,83 @@
       </c>
       <c r="B12" s="10" t="e"/>
       <c r="C12" s="10" t="e"/>
-      <c r="D12" s="11" t="n">
-        <v>16443.866</v>
-      </c>
-      <c r="E12" s="12" t="n">
-        <v>2637664.59</v>
-      </c>
-      <c r="F12" s="12" t="e"/>
-      <c r="G12" s="12" t="e"/>
-      <c r="H12" s="11" t="n">
-        <v>17824.125</v>
-      </c>
-      <c r="I12" s="12" t="n">
-        <v>3026078.48</v>
-      </c>
-      <c r="J12" s="11" t="n">
-        <v>20078.582</v>
-      </c>
-      <c r="K12" s="12" t="n">
-        <v>3562950.22</v>
-      </c>
-      <c r="L12" s="11" t="n">
-        <v>18840.351</v>
-      </c>
-      <c r="M12" s="12" t="n">
-        <v>3529974.46</v>
-      </c>
-      <c r="N12" s="11" t="n">
-        <v>18331.234</v>
-      </c>
-      <c r="O12" s="12" t="n">
-        <v>3506010.2</v>
-      </c>
-      <c r="P12" s="11" t="n">
-        <v>19255.436</v>
-      </c>
-      <c r="Q12" s="12" t="n">
-        <v>3403627.56</v>
-      </c>
-      <c r="R12" s="11" t="n">
-        <v>20220.494</v>
-      </c>
-      <c r="S12" s="12" t="n">
-        <v>3645331.91</v>
-      </c>
-      <c r="T12" s="11" t="n">
-        <v>19753.376</v>
-      </c>
-      <c r="U12" s="12" t="n">
-        <v>3515110.75</v>
-      </c>
-      <c r="V12" s="11" t="n">
-        <v>19572.608</v>
-      </c>
-      <c r="W12" s="12" t="n">
-        <v>3811369.25</v>
-      </c>
-      <c r="X12" s="11" t="n">
-        <v>19792.178</v>
-      </c>
-      <c r="Y12" s="12" t="n">
-        <v>3883419.94</v>
-      </c>
-      <c r="Z12" s="11" t="n">
-        <v>11460.512</v>
-      </c>
-      <c r="AA12" s="12" t="n">
-        <v>2304695.12</v>
-      </c>
-      <c r="AB12" s="14" t="e"/>
-      <c r="AC12" s="14" t="e"/>
-      <c r="AD12" s="14" t="e"/>
-      <c r="AE12" s="14" t="e"/>
-      <c r="AF12" s="14" t="e"/>
-      <c r="AG12" s="14" t="e"/>
-      <c r="AH12" s="14" t="e"/>
-      <c r="AI12" s="14" t="e"/>
-      <c r="AJ12" s="14" t="e"/>
-      <c r="AK12" s="14" t="e"/>
-      <c r="AL12" s="14" t="e"/>
-      <c r="AM12" s="14" t="e"/>
-      <c r="AN12" s="14" t="e"/>
-      <c r="AO12" s="14" t="e"/>
-      <c r="AP12" s="14" t="e"/>
-      <c r="AQ12" s="14" t="e"/>
-      <c r="AR12" s="11" t="n">
-        <v>201572.762</v>
-      </c>
-      <c r="AS12" s="12" t="n">
-        <v>36826232.48</v>
+      <c r="D12" s="11" t="e"/>
+      <c r="E12" s="12" t="e"/>
+      <c r="F12" s="13" t="e"/>
+      <c r="G12" s="14" t="e"/>
+      <c r="H12" s="11" t="e"/>
+      <c r="I12" s="11" t="e"/>
+      <c r="J12" s="11" t="e"/>
+      <c r="K12" s="11" t="e"/>
+      <c r="L12" s="11" t="e"/>
+      <c r="M12" s="11" t="e"/>
+      <c r="N12" s="11" t="e"/>
+      <c r="O12" s="11" t="e"/>
+      <c r="P12" s="11" t="e"/>
+      <c r="Q12" s="11" t="e"/>
+      <c r="R12" s="11" t="e"/>
+      <c r="S12" s="11" t="e"/>
+      <c r="T12" s="11" t="e"/>
+      <c r="U12" s="11" t="e"/>
+      <c r="V12" s="11" t="e"/>
+      <c r="W12" s="11" t="e"/>
+      <c r="X12" s="11" t="e"/>
+      <c r="Y12" s="11" t="e"/>
+      <c r="Z12" s="15" t="n">
+        <v>8813.522</v>
+      </c>
+      <c r="AA12" s="16" t="n">
+        <v>1568529.91</v>
+      </c>
+      <c r="AB12" s="15" t="n">
+        <v>18183.931</v>
+      </c>
+      <c r="AC12" s="16" t="n">
+        <v>3679295.37</v>
+      </c>
+      <c r="AD12" s="16" t="n">
+        <v>14733.27</v>
+      </c>
+      <c r="AE12" s="16" t="n">
+        <v>2672376.08</v>
+      </c>
+      <c r="AF12" s="15" t="n">
+        <v>16408.225</v>
+      </c>
+      <c r="AG12" s="16" t="n">
+        <v>3022988.38</v>
+      </c>
+      <c r="AH12" s="15" t="n">
+        <v>17193.368</v>
+      </c>
+      <c r="AI12" s="16" t="n">
+        <v>3062994.93</v>
+      </c>
+      <c r="AJ12" s="15" t="n">
+        <v>18716.808</v>
+      </c>
+      <c r="AK12" s="16" t="n">
+        <v>3354189.8</v>
+      </c>
+      <c r="AL12" s="15" t="n">
+        <v>19644.893</v>
+      </c>
+      <c r="AM12" s="16" t="n">
+        <v>3320196.28</v>
+      </c>
+      <c r="AN12" s="15" t="n">
+        <v>19668.688</v>
+      </c>
+      <c r="AO12" s="16" t="n">
+        <v>3218109.71</v>
+      </c>
+      <c r="AP12" s="11" t="e"/>
+      <c r="AQ12" s="11" t="e"/>
+      <c r="AR12" s="15" t="n">
+        <v>133362.705</v>
+      </c>
+      <c r="AS12" s="16" t="n">
+        <v>23898680.46</v>
       </c>
     </row>
     <row r="13" ht="11" customHeight="true">
@@ -1027,83 +1015,99 @@
       </c>
       <c r="B13" s="10" t="e"/>
       <c r="C13" s="10" t="e"/>
-      <c r="D13" s="14" t="e"/>
-      <c r="E13" s="15" t="e"/>
+      <c r="D13" s="15" t="n">
+        <v>19959.282</v>
+      </c>
+      <c r="E13" s="16" t="n">
+        <v>3852308.12</v>
+      </c>
       <c r="F13" s="16" t="e"/>
-      <c r="G13" s="17" t="e"/>
-      <c r="H13" s="14" t="e"/>
-      <c r="I13" s="14" t="e"/>
-      <c r="J13" s="14" t="e"/>
-      <c r="K13" s="14" t="e"/>
-      <c r="L13" s="14" t="e"/>
-      <c r="M13" s="14" t="e"/>
-      <c r="N13" s="14" t="e"/>
-      <c r="O13" s="14" t="e"/>
-      <c r="P13" s="14" t="e"/>
-      <c r="Q13" s="14" t="e"/>
-      <c r="R13" s="14" t="e"/>
-      <c r="S13" s="14" t="e"/>
-      <c r="T13" s="14" t="e"/>
-      <c r="U13" s="14" t="e"/>
-      <c r="V13" s="14" t="e"/>
-      <c r="W13" s="14" t="e"/>
-      <c r="X13" s="14" t="e"/>
-      <c r="Y13" s="14" t="e"/>
-      <c r="Z13" s="11" t="n">
-        <v>8813.522</v>
-      </c>
-      <c r="AA13" s="12" t="n">
-        <v>1568529.91</v>
-      </c>
-      <c r="AB13" s="11" t="n">
-        <v>18183.931</v>
-      </c>
-      <c r="AC13" s="12" t="n">
-        <v>3679295.37</v>
-      </c>
-      <c r="AD13" s="12" t="n">
-        <v>14733.27</v>
-      </c>
-      <c r="AE13" s="12" t="n">
-        <v>2672376.08</v>
-      </c>
-      <c r="AF13" s="11" t="n">
-        <v>16408.225</v>
-      </c>
-      <c r="AG13" s="12" t="n">
-        <v>3022988.38</v>
-      </c>
-      <c r="AH13" s="11" t="n">
-        <v>17193.368</v>
-      </c>
-      <c r="AI13" s="12" t="n">
-        <v>3062994.93</v>
-      </c>
-      <c r="AJ13" s="11" t="n">
-        <v>18716.808</v>
-      </c>
-      <c r="AK13" s="12" t="n">
-        <v>3354189.8</v>
-      </c>
-      <c r="AL13" s="11" t="n">
-        <v>19644.893</v>
-      </c>
-      <c r="AM13" s="12" t="n">
-        <v>3320196.28</v>
-      </c>
-      <c r="AN13" s="11" t="n">
-        <v>19668.688</v>
-      </c>
-      <c r="AO13" s="12" t="n">
-        <v>3218109.71</v>
-      </c>
-      <c r="AP13" s="14" t="e"/>
-      <c r="AQ13" s="14" t="e"/>
-      <c r="AR13" s="11" t="n">
-        <v>133362.705</v>
-      </c>
-      <c r="AS13" s="12" t="n">
-        <v>23898680.46</v>
+      <c r="G13" s="16" t="e"/>
+      <c r="H13" s="15" t="n">
+        <v>21398.466</v>
+      </c>
+      <c r="I13" s="16" t="n">
+        <v>4183457.92</v>
+      </c>
+      <c r="J13" s="15" t="n">
+        <v>21640.743</v>
+      </c>
+      <c r="K13" s="16" t="n">
+        <v>4495878.71</v>
+      </c>
+      <c r="L13" s="15" t="n">
+        <v>21477.842</v>
+      </c>
+      <c r="M13" s="16" t="n">
+        <v>4671363.42</v>
+      </c>
+      <c r="N13" s="15" t="n">
+        <v>21635.769</v>
+      </c>
+      <c r="O13" s="16" t="n">
+        <v>4830464.07</v>
+      </c>
+      <c r="P13" s="15" t="n">
+        <v>21894.182</v>
+      </c>
+      <c r="Q13" s="16" t="n">
+        <v>4727330.66</v>
+      </c>
+      <c r="R13" s="15" t="n">
+        <v>23769.852</v>
+      </c>
+      <c r="S13" s="16" t="n">
+        <v>5118490.03</v>
+      </c>
+      <c r="T13" s="15" t="n">
+        <v>23966.624</v>
+      </c>
+      <c r="U13" s="16" t="n">
+        <v>5099549.62</v>
+      </c>
+      <c r="V13" s="15" t="n">
+        <v>22795.329</v>
+      </c>
+      <c r="W13" s="16" t="n">
+        <v>5185052.7</v>
+      </c>
+      <c r="X13" s="15" t="n">
+        <v>23177.208</v>
+      </c>
+      <c r="Y13" s="16" t="n">
+        <v>5236013.26</v>
+      </c>
+      <c r="Z13" s="15" t="n">
+        <v>21323.556</v>
+      </c>
+      <c r="AA13" s="16" t="n">
+        <v>4793145.03</v>
+      </c>
+      <c r="AB13" s="15" t="n">
+        <v>24395.166</v>
+      </c>
+      <c r="AC13" s="16" t="n">
+        <v>6161958.57</v>
+      </c>
+      <c r="AD13" s="11" t="e"/>
+      <c r="AE13" s="11" t="e"/>
+      <c r="AF13" s="11" t="e"/>
+      <c r="AG13" s="11" t="e"/>
+      <c r="AH13" s="11" t="e"/>
+      <c r="AI13" s="11" t="e"/>
+      <c r="AJ13" s="11" t="e"/>
+      <c r="AK13" s="11" t="e"/>
+      <c r="AL13" s="11" t="e"/>
+      <c r="AM13" s="11" t="e"/>
+      <c r="AN13" s="11" t="e"/>
+      <c r="AO13" s="11" t="e"/>
+      <c r="AP13" s="11" t="e"/>
+      <c r="AQ13" s="11" t="e"/>
+      <c r="AR13" s="15" t="n">
+        <v>267434.019</v>
+      </c>
+      <c r="AS13" s="16" t="n">
+        <v>58355012.11</v>
       </c>
     </row>
     <row r="14" ht="11" customHeight="true">
@@ -1112,99 +1116,123 @@
       </c>
       <c r="B14" s="10" t="e"/>
       <c r="C14" s="10" t="e"/>
-      <c r="D14" s="11" t="n">
-        <v>19959.282</v>
-      </c>
-      <c r="E14" s="12" t="n">
-        <v>3852308.12</v>
-      </c>
-      <c r="F14" s="12" t="e"/>
-      <c r="G14" s="12" t="e"/>
-      <c r="H14" s="11" t="n">
-        <v>21398.466</v>
-      </c>
-      <c r="I14" s="12" t="n">
-        <v>4183457.92</v>
-      </c>
-      <c r="J14" s="11" t="n">
-        <v>21640.743</v>
-      </c>
-      <c r="K14" s="12" t="n">
-        <v>4495878.71</v>
-      </c>
-      <c r="L14" s="11" t="n">
-        <v>21477.842</v>
-      </c>
-      <c r="M14" s="12" t="n">
-        <v>4671363.42</v>
-      </c>
-      <c r="N14" s="11" t="n">
-        <v>21635.769</v>
-      </c>
-      <c r="O14" s="12" t="n">
-        <v>4830464.07</v>
-      </c>
-      <c r="P14" s="11" t="n">
-        <v>21894.182</v>
-      </c>
-      <c r="Q14" s="12" t="n">
-        <v>4727330.66</v>
-      </c>
-      <c r="R14" s="11" t="n">
-        <v>23769.852</v>
-      </c>
-      <c r="S14" s="12" t="n">
-        <v>5118490.03</v>
-      </c>
-      <c r="T14" s="11" t="n">
-        <v>23966.624</v>
-      </c>
-      <c r="U14" s="12" t="n">
-        <v>5099549.62</v>
-      </c>
-      <c r="V14" s="11" t="n">
-        <v>22795.329</v>
-      </c>
-      <c r="W14" s="12" t="n">
-        <v>5185052.7</v>
-      </c>
-      <c r="X14" s="11" t="n">
-        <v>23177.208</v>
-      </c>
-      <c r="Y14" s="12" t="n">
-        <v>5236013.26</v>
-      </c>
-      <c r="Z14" s="11" t="n">
-        <v>21323.556</v>
-      </c>
-      <c r="AA14" s="12" t="n">
-        <v>4793145.03</v>
-      </c>
-      <c r="AB14" s="11" t="n">
-        <v>24395.166</v>
-      </c>
-      <c r="AC14" s="12" t="n">
-        <v>6161958.57</v>
-      </c>
-      <c r="AD14" s="14" t="e"/>
-      <c r="AE14" s="14" t="e"/>
-      <c r="AF14" s="14" t="e"/>
-      <c r="AG14" s="14" t="e"/>
-      <c r="AH14" s="14" t="e"/>
-      <c r="AI14" s="14" t="e"/>
-      <c r="AJ14" s="14" t="e"/>
-      <c r="AK14" s="14" t="e"/>
-      <c r="AL14" s="14" t="e"/>
-      <c r="AM14" s="14" t="e"/>
-      <c r="AN14" s="14" t="e"/>
-      <c r="AO14" s="14" t="e"/>
-      <c r="AP14" s="14" t="e"/>
-      <c r="AQ14" s="14" t="e"/>
-      <c r="AR14" s="11" t="n">
-        <v>267434.019</v>
-      </c>
-      <c r="AS14" s="12" t="n">
-        <v>58355012.11</v>
+      <c r="D14" s="15" t="n">
+        <v>18996.562</v>
+      </c>
+      <c r="E14" s="16" t="n">
+        <v>3544598.13</v>
+      </c>
+      <c r="F14" s="16" t="e"/>
+      <c r="G14" s="16" t="e"/>
+      <c r="H14" s="15" t="n">
+        <v>21373.523</v>
+      </c>
+      <c r="I14" s="16" t="n">
+        <v>4037391.39</v>
+      </c>
+      <c r="J14" s="15" t="n">
+        <v>23999.842</v>
+      </c>
+      <c r="K14" s="16" t="n">
+        <v>4967758.81</v>
+      </c>
+      <c r="L14" s="15" t="n">
+        <v>24830.075</v>
+      </c>
+      <c r="M14" s="16" t="n">
+        <v>5181975.05</v>
+      </c>
+      <c r="N14" s="15" t="n">
+        <v>25141.026</v>
+      </c>
+      <c r="O14" s="16" t="n">
+        <v>5123913.79</v>
+      </c>
+      <c r="P14" s="15" t="n">
+        <v>26837.584</v>
+      </c>
+      <c r="Q14" s="16" t="n">
+        <v>5074824.53</v>
+      </c>
+      <c r="R14" s="15" t="n">
+        <v>27619.077</v>
+      </c>
+      <c r="S14" s="16" t="n">
+        <v>5184900.17</v>
+      </c>
+      <c r="T14" s="17" t="n">
+        <v>28222.9</v>
+      </c>
+      <c r="U14" s="16" t="n">
+        <v>5242625.88</v>
+      </c>
+      <c r="V14" s="15" t="n">
+        <v>24412.403</v>
+      </c>
+      <c r="W14" s="16" t="n">
+        <v>5063622.32</v>
+      </c>
+      <c r="X14" s="15" t="n">
+        <v>24113.582</v>
+      </c>
+      <c r="Y14" s="16" t="n">
+        <v>5096713.09</v>
+      </c>
+      <c r="Z14" s="15" t="n">
+        <v>22429.556</v>
+      </c>
+      <c r="AA14" s="16" t="n">
+        <v>4719089.93</v>
+      </c>
+      <c r="AB14" s="15" t="n">
+        <v>25163.249</v>
+      </c>
+      <c r="AC14" s="16" t="n">
+        <v>5844669.23</v>
+      </c>
+      <c r="AD14" s="15" t="n">
+        <v>18758.038</v>
+      </c>
+      <c r="AE14" s="16" t="n">
+        <v>4076798.29</v>
+      </c>
+      <c r="AF14" s="15" t="n">
+        <v>20830.272</v>
+      </c>
+      <c r="AG14" s="16" t="n">
+        <v>4487710.47</v>
+      </c>
+      <c r="AH14" s="15" t="n">
+        <v>22841.356</v>
+      </c>
+      <c r="AI14" s="16" t="n">
+        <v>4745289.04</v>
+      </c>
+      <c r="AJ14" s="15" t="n">
+        <v>24742.355</v>
+      </c>
+      <c r="AK14" s="16" t="n">
+        <v>5009194.44</v>
+      </c>
+      <c r="AL14" s="15" t="n">
+        <v>27168.643</v>
+      </c>
+      <c r="AM14" s="16" t="n">
+        <v>5188241.45</v>
+      </c>
+      <c r="AN14" s="15" t="n">
+        <v>28751.025</v>
+      </c>
+      <c r="AO14" s="16" t="n">
+        <v>5226881.32</v>
+      </c>
+      <c r="AP14" s="11" t="e"/>
+      <c r="AQ14" s="11" t="e"/>
+      <c r="AR14" s="15" t="n">
+        <v>436231.068</v>
+      </c>
+      <c r="AS14" s="16" t="n">
+        <v>87816197.33</v>
       </c>
     </row>
     <row r="15" ht="11" customHeight="true">
@@ -1213,123 +1241,55 @@
       </c>
       <c r="B15" s="10" t="e"/>
       <c r="C15" s="10" t="e"/>
-      <c r="D15" s="11" t="n">
-        <v>18996.562</v>
-      </c>
-      <c r="E15" s="12" t="n">
-        <v>3544598.13</v>
-      </c>
-      <c r="F15" s="12" t="e"/>
-      <c r="G15" s="12" t="e"/>
-      <c r="H15" s="11" t="n">
-        <v>21373.523</v>
-      </c>
-      <c r="I15" s="12" t="n">
-        <v>4037391.39</v>
-      </c>
-      <c r="J15" s="11" t="n">
-        <v>23999.842</v>
-      </c>
-      <c r="K15" s="12" t="n">
-        <v>4967758.81</v>
-      </c>
-      <c r="L15" s="11" t="n">
-        <v>24830.075</v>
-      </c>
-      <c r="M15" s="12" t="n">
-        <v>5181975.05</v>
-      </c>
-      <c r="N15" s="11" t="n">
-        <v>25141.026</v>
-      </c>
-      <c r="O15" s="12" t="n">
-        <v>5123913.79</v>
-      </c>
-      <c r="P15" s="11" t="n">
-        <v>26837.584</v>
-      </c>
-      <c r="Q15" s="12" t="n">
-        <v>5074824.53</v>
-      </c>
-      <c r="R15" s="11" t="n">
-        <v>27619.077</v>
-      </c>
-      <c r="S15" s="12" t="n">
-        <v>5184900.17</v>
-      </c>
-      <c r="T15" s="13" t="n">
-        <v>28222.9</v>
-      </c>
-      <c r="U15" s="12" t="n">
-        <v>5242625.88</v>
-      </c>
-      <c r="V15" s="11" t="n">
-        <v>24412.403</v>
-      </c>
-      <c r="W15" s="12" t="n">
-        <v>5063622.32</v>
-      </c>
-      <c r="X15" s="11" t="n">
-        <v>24113.582</v>
-      </c>
-      <c r="Y15" s="12" t="n">
-        <v>5096713.09</v>
-      </c>
-      <c r="Z15" s="11" t="n">
-        <v>22429.556</v>
-      </c>
-      <c r="AA15" s="12" t="n">
-        <v>4719089.93</v>
-      </c>
-      <c r="AB15" s="11" t="n">
-        <v>25163.249</v>
-      </c>
-      <c r="AC15" s="12" t="n">
-        <v>5844669.23</v>
-      </c>
-      <c r="AD15" s="11" t="n">
-        <v>18758.038</v>
-      </c>
-      <c r="AE15" s="12" t="n">
-        <v>4076798.29</v>
-      </c>
-      <c r="AF15" s="11" t="n">
-        <v>20830.272</v>
-      </c>
-      <c r="AG15" s="12" t="n">
-        <v>4487710.47</v>
-      </c>
-      <c r="AH15" s="11" t="n">
-        <v>22841.356</v>
-      </c>
-      <c r="AI15" s="12" t="n">
-        <v>4745289.04</v>
-      </c>
-      <c r="AJ15" s="11" t="n">
-        <v>24742.355</v>
-      </c>
-      <c r="AK15" s="12" t="n">
-        <v>5009194.44</v>
-      </c>
-      <c r="AL15" s="11" t="n">
-        <v>27168.643</v>
-      </c>
-      <c r="AM15" s="12" t="n">
-        <v>5188241.45</v>
-      </c>
-      <c r="AN15" s="11" t="n">
-        <v>28751.025</v>
-      </c>
-      <c r="AO15" s="12" t="n">
-        <v>5226881.32</v>
-      </c>
-      <c r="AP15" s="14" t="e"/>
-      <c r="AQ15" s="14" t="e"/>
-      <c r="AR15" s="11" t="n">
-        <v>436231.068</v>
-      </c>
-      <c r="AS15" s="12" t="n">
-        <v>87816197.33</v>
+      <c r="D15" s="11" t="e"/>
+      <c r="E15" s="12" t="e"/>
+      <c r="F15" s="13" t="e"/>
+      <c r="G15" s="14" t="e"/>
+      <c r="H15" s="11" t="e"/>
+      <c r="I15" s="11" t="e"/>
+      <c r="J15" s="11" t="e"/>
+      <c r="K15" s="11" t="e"/>
+      <c r="L15" s="11" t="e"/>
+      <c r="M15" s="11" t="e"/>
+      <c r="N15" s="11" t="e"/>
+      <c r="O15" s="11" t="e"/>
+      <c r="P15" s="11" t="e"/>
+      <c r="Q15" s="11" t="e"/>
+      <c r="R15" s="11" t="e"/>
+      <c r="S15" s="11" t="e"/>
+      <c r="T15" s="11" t="e"/>
+      <c r="U15" s="11" t="e"/>
+      <c r="V15" s="11" t="e"/>
+      <c r="W15" s="11" t="e"/>
+      <c r="X15" s="11" t="e"/>
+      <c r="Y15" s="11" t="e"/>
+      <c r="Z15" s="11" t="e"/>
+      <c r="AA15" s="11" t="e"/>
+      <c r="AB15" s="11" t="e"/>
+      <c r="AC15" s="11" t="e"/>
+      <c r="AD15" s="11" t="e"/>
+      <c r="AE15" s="11" t="e"/>
+      <c r="AF15" s="11" t="e"/>
+      <c r="AG15" s="11" t="e"/>
+      <c r="AH15" s="11" t="e"/>
+      <c r="AI15" s="11" t="e"/>
+      <c r="AJ15" s="11" t="e"/>
+      <c r="AK15" s="11" t="e"/>
+      <c r="AL15" s="11" t="e"/>
+      <c r="AM15" s="11" t="e"/>
+      <c r="AN15" s="11" t="e"/>
+      <c r="AO15" s="11" t="e"/>
+      <c r="AP15" s="16" t="n">
+        <v>3084.84</v>
+      </c>
+      <c r="AQ15" s="16" t="n">
+        <v>460183.99</v>
+      </c>
+      <c r="AR15" s="16" t="n">
+        <v>3084.84</v>
+      </c>
+      <c r="AS15" s="16" t="n">
+        <v>460183.99</v>
       </c>
     </row>
     <row r="16" ht="11" customHeight="true">
@@ -1338,55 +1298,127 @@
       </c>
       <c r="B16" s="10" t="e"/>
       <c r="C16" s="10" t="e"/>
-      <c r="D16" s="14" t="e"/>
-      <c r="E16" s="15" t="e"/>
+      <c r="D16" s="15" t="n">
+        <v>14272.706</v>
+      </c>
+      <c r="E16" s="16" t="n">
+        <v>1917181.17</v>
+      </c>
       <c r="F16" s="16" t="e"/>
-      <c r="G16" s="17" t="e"/>
-      <c r="H16" s="14" t="e"/>
-      <c r="I16" s="14" t="e"/>
-      <c r="J16" s="14" t="e"/>
-      <c r="K16" s="14" t="e"/>
-      <c r="L16" s="14" t="e"/>
-      <c r="M16" s="14" t="e"/>
-      <c r="N16" s="14" t="e"/>
-      <c r="O16" s="14" t="e"/>
-      <c r="P16" s="14" t="e"/>
-      <c r="Q16" s="14" t="e"/>
-      <c r="R16" s="14" t="e"/>
-      <c r="S16" s="14" t="e"/>
-      <c r="T16" s="14" t="e"/>
-      <c r="U16" s="14" t="e"/>
-      <c r="V16" s="14" t="e"/>
-      <c r="W16" s="14" t="e"/>
-      <c r="X16" s="14" t="e"/>
-      <c r="Y16" s="14" t="e"/>
-      <c r="Z16" s="14" t="e"/>
-      <c r="AA16" s="14" t="e"/>
-      <c r="AB16" s="14" t="e"/>
-      <c r="AC16" s="14" t="e"/>
-      <c r="AD16" s="14" t="e"/>
-      <c r="AE16" s="14" t="e"/>
-      <c r="AF16" s="14" t="e"/>
-      <c r="AG16" s="14" t="e"/>
-      <c r="AH16" s="14" t="e"/>
-      <c r="AI16" s="14" t="e"/>
-      <c r="AJ16" s="14" t="e"/>
-      <c r="AK16" s="14" t="e"/>
-      <c r="AL16" s="14" t="e"/>
-      <c r="AM16" s="14" t="e"/>
-      <c r="AN16" s="14" t="e"/>
-      <c r="AO16" s="14" t="e"/>
-      <c r="AP16" s="11" t="n">
-        <v>2533.315</v>
-      </c>
-      <c r="AQ16" s="12" t="n">
-        <v>386244.94</v>
-      </c>
-      <c r="AR16" s="11" t="n">
-        <v>2533.315</v>
-      </c>
-      <c r="AS16" s="12" t="n">
-        <v>386244.94</v>
+      <c r="G16" s="16" t="e"/>
+      <c r="H16" s="15" t="n">
+        <v>15245.738</v>
+      </c>
+      <c r="I16" s="16" t="n">
+        <v>2059139.77</v>
+      </c>
+      <c r="J16" s="15" t="n">
+        <v>16354.561</v>
+      </c>
+      <c r="K16" s="16" t="n">
+        <v>2322271.5</v>
+      </c>
+      <c r="L16" s="15" t="n">
+        <v>16282.924</v>
+      </c>
+      <c r="M16" s="16" t="n">
+        <v>2488183.2</v>
+      </c>
+      <c r="N16" s="15" t="n">
+        <v>16957.465</v>
+      </c>
+      <c r="O16" s="16" t="n">
+        <v>2608114.71</v>
+      </c>
+      <c r="P16" s="15" t="n">
+        <v>17588.077</v>
+      </c>
+      <c r="Q16" s="16" t="n">
+        <v>2597874.95</v>
+      </c>
+      <c r="R16" s="15" t="n">
+        <v>17870.858</v>
+      </c>
+      <c r="S16" s="16" t="n">
+        <v>2622051.71</v>
+      </c>
+      <c r="T16" s="15" t="n">
+        <v>18030.783</v>
+      </c>
+      <c r="U16" s="16" t="n">
+        <v>2684828.7</v>
+      </c>
+      <c r="V16" s="15" t="n">
+        <v>16570.279</v>
+      </c>
+      <c r="W16" s="16" t="n">
+        <v>2656549.21</v>
+      </c>
+      <c r="X16" s="15" t="n">
+        <v>16869.216</v>
+      </c>
+      <c r="Y16" s="16" t="n">
+        <v>2724479.49</v>
+      </c>
+      <c r="Z16" s="16" t="n">
+        <v>17053.61</v>
+      </c>
+      <c r="AA16" s="16" t="n">
+        <v>2665939.35</v>
+      </c>
+      <c r="AB16" s="15" t="n">
+        <v>18456.423</v>
+      </c>
+      <c r="AC16" s="16" t="n">
+        <v>3206791.37</v>
+      </c>
+      <c r="AD16" s="15" t="n">
+        <v>14646.427</v>
+      </c>
+      <c r="AE16" s="16" t="n">
+        <v>2263359.95</v>
+      </c>
+      <c r="AF16" s="15" t="n">
+        <v>16283.796</v>
+      </c>
+      <c r="AG16" s="16" t="n">
+        <v>2575365.25</v>
+      </c>
+      <c r="AH16" s="15" t="n">
+        <v>18885.833</v>
+      </c>
+      <c r="AI16" s="16" t="n">
+        <v>2991152.22</v>
+      </c>
+      <c r="AJ16" s="15" t="n">
+        <v>19521.634</v>
+      </c>
+      <c r="AK16" s="16" t="n">
+        <v>3170605.24</v>
+      </c>
+      <c r="AL16" s="16" t="n">
+        <v>21085.85</v>
+      </c>
+      <c r="AM16" s="16" t="n">
+        <v>3150642.49</v>
+      </c>
+      <c r="AN16" s="15" t="n">
+        <v>22430.339</v>
+      </c>
+      <c r="AO16" s="16" t="n">
+        <v>3293495.92</v>
+      </c>
+      <c r="AP16" s="15" t="n">
+        <v>22649.216</v>
+      </c>
+      <c r="AQ16" s="16" t="n">
+        <v>3357688.94</v>
+      </c>
+      <c r="AR16" s="15" t="n">
+        <v>337055.735</v>
+      </c>
+      <c r="AS16" s="16" t="n">
+        <v>51355715.14</v>
       </c>
     </row>
     <row r="17" ht="11" customHeight="true">
@@ -1395,127 +1427,79 @@
       </c>
       <c r="B17" s="10" t="e"/>
       <c r="C17" s="10" t="e"/>
-      <c r="D17" s="11" t="n">
-        <v>14272.706</v>
-      </c>
-      <c r="E17" s="12" t="n">
-        <v>1917181.17</v>
-      </c>
-      <c r="F17" s="12" t="e"/>
-      <c r="G17" s="12" t="e"/>
-      <c r="H17" s="11" t="n">
-        <v>15245.738</v>
-      </c>
-      <c r="I17" s="12" t="n">
-        <v>2059139.77</v>
-      </c>
-      <c r="J17" s="11" t="n">
-        <v>16354.561</v>
-      </c>
-      <c r="K17" s="12" t="n">
-        <v>2322271.5</v>
-      </c>
-      <c r="L17" s="11" t="n">
-        <v>16282.924</v>
-      </c>
-      <c r="M17" s="12" t="n">
-        <v>2488183.2</v>
-      </c>
-      <c r="N17" s="11" t="n">
-        <v>16957.465</v>
-      </c>
-      <c r="O17" s="12" t="n">
-        <v>2608114.71</v>
-      </c>
-      <c r="P17" s="11" t="n">
-        <v>17588.077</v>
-      </c>
-      <c r="Q17" s="12" t="n">
-        <v>2597874.95</v>
-      </c>
-      <c r="R17" s="11" t="n">
-        <v>17870.858</v>
-      </c>
-      <c r="S17" s="12" t="n">
-        <v>2622051.71</v>
-      </c>
-      <c r="T17" s="11" t="n">
-        <v>18030.783</v>
-      </c>
-      <c r="U17" s="12" t="n">
-        <v>2684828.7</v>
-      </c>
-      <c r="V17" s="11" t="n">
-        <v>16570.279</v>
-      </c>
-      <c r="W17" s="12" t="n">
-        <v>2656549.21</v>
-      </c>
-      <c r="X17" s="11" t="n">
-        <v>16869.216</v>
-      </c>
-      <c r="Y17" s="12" t="n">
-        <v>2724479.49</v>
-      </c>
-      <c r="Z17" s="12" t="n">
-        <v>17053.61</v>
-      </c>
-      <c r="AA17" s="12" t="n">
-        <v>2665939.35</v>
-      </c>
-      <c r="AB17" s="11" t="n">
-        <v>18456.423</v>
-      </c>
-      <c r="AC17" s="12" t="n">
-        <v>3206791.37</v>
-      </c>
-      <c r="AD17" s="11" t="n">
-        <v>14646.427</v>
-      </c>
-      <c r="AE17" s="12" t="n">
-        <v>2263359.95</v>
-      </c>
-      <c r="AF17" s="11" t="n">
-        <v>16283.796</v>
-      </c>
-      <c r="AG17" s="12" t="n">
-        <v>2575365.25</v>
-      </c>
-      <c r="AH17" s="11" t="n">
-        <v>18885.833</v>
-      </c>
-      <c r="AI17" s="12" t="n">
-        <v>2991152.22</v>
-      </c>
-      <c r="AJ17" s="11" t="n">
-        <v>19521.634</v>
-      </c>
-      <c r="AK17" s="12" t="n">
-        <v>3170605.24</v>
-      </c>
-      <c r="AL17" s="12" t="n">
-        <v>21085.85</v>
-      </c>
-      <c r="AM17" s="12" t="n">
-        <v>3150642.49</v>
-      </c>
-      <c r="AN17" s="11" t="n">
-        <v>22430.339</v>
-      </c>
-      <c r="AO17" s="12" t="n">
-        <v>3293495.92</v>
-      </c>
-      <c r="AP17" s="11" t="n">
-        <v>21815.148</v>
-      </c>
-      <c r="AQ17" s="12" t="n">
-        <v>3240301.27</v>
-      </c>
-      <c r="AR17" s="11" t="n">
-        <v>336221.667</v>
-      </c>
-      <c r="AS17" s="12" t="n">
-        <v>51238327.47</v>
+      <c r="D17" s="11" t="e"/>
+      <c r="E17" s="12" t="e"/>
+      <c r="F17" s="13" t="e"/>
+      <c r="G17" s="14" t="e"/>
+      <c r="H17" s="11" t="e"/>
+      <c r="I17" s="11" t="e"/>
+      <c r="J17" s="11" t="e"/>
+      <c r="K17" s="11" t="e"/>
+      <c r="L17" s="11" t="e"/>
+      <c r="M17" s="11" t="e"/>
+      <c r="N17" s="11" t="e"/>
+      <c r="O17" s="11" t="e"/>
+      <c r="P17" s="11" t="e"/>
+      <c r="Q17" s="11" t="e"/>
+      <c r="R17" s="11" t="e"/>
+      <c r="S17" s="11" t="e"/>
+      <c r="T17" s="11" t="e"/>
+      <c r="U17" s="11" t="e"/>
+      <c r="V17" s="11" t="e"/>
+      <c r="W17" s="11" t="e"/>
+      <c r="X17" s="11" t="e"/>
+      <c r="Y17" s="11" t="e"/>
+      <c r="Z17" s="11" t="e"/>
+      <c r="AA17" s="11" t="e"/>
+      <c r="AB17" s="11" t="e"/>
+      <c r="AC17" s="11" t="e"/>
+      <c r="AD17" s="17" t="n">
+        <v>12682.7</v>
+      </c>
+      <c r="AE17" s="16" t="n">
+        <v>2413985.31</v>
+      </c>
+      <c r="AF17" s="15" t="n">
+        <v>13459.995</v>
+      </c>
+      <c r="AG17" s="16" t="n">
+        <v>2705067.47</v>
+      </c>
+      <c r="AH17" s="15" t="n">
+        <v>15725.597</v>
+      </c>
+      <c r="AI17" s="16" t="n">
+        <v>3055326.94</v>
+      </c>
+      <c r="AJ17" s="16" t="n">
+        <v>15660.96</v>
+      </c>
+      <c r="AK17" s="16" t="n">
+        <v>3147989.35</v>
+      </c>
+      <c r="AL17" s="15" t="n">
+        <v>15911.083</v>
+      </c>
+      <c r="AM17" s="16" t="n">
+        <v>2990881.22</v>
+      </c>
+      <c r="AN17" s="15" t="n">
+        <v>16560.544</v>
+      </c>
+      <c r="AO17" s="16" t="n">
+        <v>2909803.73</v>
+      </c>
+      <c r="AP17" s="15" t="n">
+        <v>17507.376</v>
+      </c>
+      <c r="AQ17" s="16" t="n">
+        <v>3092989.42</v>
+      </c>
+      <c r="AR17" s="15" t="n">
+        <v>107508.255</v>
+      </c>
+      <c r="AS17" s="16" t="n">
+        <v>20316043.44</v>
       </c>
     </row>
     <row r="18" ht="11" customHeight="true">
@@ -1524,79 +1508,95 @@
       </c>
       <c r="B18" s="10" t="e"/>
       <c r="C18" s="10" t="e"/>
-      <c r="D18" s="14" t="e"/>
-      <c r="E18" s="15" t="e"/>
+      <c r="D18" s="15" t="n">
+        <v>12215.836</v>
+      </c>
+      <c r="E18" s="16" t="n">
+        <v>1961993.15</v>
+      </c>
       <c r="F18" s="16" t="e"/>
-      <c r="G18" s="17" t="e"/>
-      <c r="H18" s="14" t="e"/>
-      <c r="I18" s="14" t="e"/>
-      <c r="J18" s="14" t="e"/>
-      <c r="K18" s="14" t="e"/>
-      <c r="L18" s="14" t="e"/>
-      <c r="M18" s="14" t="e"/>
-      <c r="N18" s="14" t="e"/>
-      <c r="O18" s="14" t="e"/>
-      <c r="P18" s="14" t="e"/>
-      <c r="Q18" s="14" t="e"/>
-      <c r="R18" s="14" t="e"/>
-      <c r="S18" s="14" t="e"/>
-      <c r="T18" s="14" t="e"/>
-      <c r="U18" s="14" t="e"/>
-      <c r="V18" s="14" t="e"/>
-      <c r="W18" s="14" t="e"/>
-      <c r="X18" s="14" t="e"/>
-      <c r="Y18" s="14" t="e"/>
-      <c r="Z18" s="14" t="e"/>
-      <c r="AA18" s="14" t="e"/>
-      <c r="AB18" s="14" t="e"/>
-      <c r="AC18" s="14" t="e"/>
-      <c r="AD18" s="13" t="n">
-        <v>12682.7</v>
-      </c>
-      <c r="AE18" s="12" t="n">
-        <v>2413985.31</v>
-      </c>
-      <c r="AF18" s="11" t="n">
-        <v>13459.995</v>
-      </c>
-      <c r="AG18" s="12" t="n">
-        <v>2705067.47</v>
-      </c>
-      <c r="AH18" s="11" t="n">
-        <v>15725.597</v>
-      </c>
-      <c r="AI18" s="12" t="n">
-        <v>3055326.94</v>
-      </c>
-      <c r="AJ18" s="12" t="n">
-        <v>15660.96</v>
-      </c>
-      <c r="AK18" s="12" t="n">
-        <v>3147989.35</v>
-      </c>
-      <c r="AL18" s="11" t="n">
-        <v>15911.083</v>
-      </c>
-      <c r="AM18" s="12" t="n">
-        <v>2990881.22</v>
-      </c>
-      <c r="AN18" s="11" t="n">
-        <v>16560.544</v>
-      </c>
-      <c r="AO18" s="12" t="n">
-        <v>2909803.73</v>
-      </c>
-      <c r="AP18" s="11" t="n">
-        <v>16790.749</v>
-      </c>
-      <c r="AQ18" s="12" t="n">
-        <v>2972937.43</v>
-      </c>
-      <c r="AR18" s="11" t="n">
-        <v>106791.628</v>
-      </c>
-      <c r="AS18" s="12" t="n">
-        <v>20195991.45</v>
+      <c r="G18" s="16" t="e"/>
+      <c r="H18" s="15" t="n">
+        <v>12637.579</v>
+      </c>
+      <c r="I18" s="16" t="n">
+        <v>2083229.76</v>
+      </c>
+      <c r="J18" s="15" t="n">
+        <v>14582.197</v>
+      </c>
+      <c r="K18" s="16" t="n">
+        <v>2547694.19</v>
+      </c>
+      <c r="L18" s="15" t="n">
+        <v>14315.976</v>
+      </c>
+      <c r="M18" s="16" t="n">
+        <v>2587443.44</v>
+      </c>
+      <c r="N18" s="15" t="n">
+        <v>14785.378</v>
+      </c>
+      <c r="O18" s="16" t="n">
+        <v>2797528.87</v>
+      </c>
+      <c r="P18" s="15" t="n">
+        <v>15915.838</v>
+      </c>
+      <c r="Q18" s="16" t="n">
+        <v>2824290.42</v>
+      </c>
+      <c r="R18" s="17" t="n">
+        <v>15519.4</v>
+      </c>
+      <c r="S18" s="16" t="n">
+        <v>2746857.7</v>
+      </c>
+      <c r="T18" s="15" t="n">
+        <v>16148.956</v>
+      </c>
+      <c r="U18" s="16" t="n">
+        <v>2803499.37</v>
+      </c>
+      <c r="V18" s="15" t="n">
+        <v>15027.691</v>
+      </c>
+      <c r="W18" s="16" t="n">
+        <v>2905610.71</v>
+      </c>
+      <c r="X18" s="15" t="n">
+        <v>16163.434</v>
+      </c>
+      <c r="Y18" s="16" t="n">
+        <v>3103463.25</v>
+      </c>
+      <c r="Z18" s="15" t="n">
+        <v>8461.982</v>
+      </c>
+      <c r="AA18" s="16" t="n">
+        <v>1643610.55</v>
+      </c>
+      <c r="AB18" s="11" t="e"/>
+      <c r="AC18" s="11" t="e"/>
+      <c r="AD18" s="11" t="e"/>
+      <c r="AE18" s="11" t="e"/>
+      <c r="AF18" s="11" t="e"/>
+      <c r="AG18" s="11" t="e"/>
+      <c r="AH18" s="11" t="e"/>
+      <c r="AI18" s="11" t="e"/>
+      <c r="AJ18" s="11" t="e"/>
+      <c r="AK18" s="11" t="e"/>
+      <c r="AL18" s="11" t="e"/>
+      <c r="AM18" s="11" t="e"/>
+      <c r="AN18" s="11" t="e"/>
+      <c r="AO18" s="11" t="e"/>
+      <c r="AP18" s="11" t="e"/>
+      <c r="AQ18" s="11" t="e"/>
+      <c r="AR18" s="15" t="n">
+        <v>155774.267</v>
+      </c>
+      <c r="AS18" s="16" t="n">
+        <v>28005221.41</v>
       </c>
     </row>
     <row r="19" ht="11" customHeight="true">
@@ -1605,127 +1605,127 @@
       </c>
       <c r="B19" s="10" t="e"/>
       <c r="C19" s="10" t="e"/>
-      <c r="D19" s="11" t="n">
+      <c r="D19" s="15" t="n">
         <v>15254.773</v>
       </c>
-      <c r="E19" s="12" t="n">
+      <c r="E19" s="16" t="n">
         <v>2292632.16</v>
       </c>
-      <c r="F19" s="12" t="e"/>
-      <c r="G19" s="12" t="e"/>
-      <c r="H19" s="11" t="n">
+      <c r="F19" s="16" t="e"/>
+      <c r="G19" s="16" t="e"/>
+      <c r="H19" s="15" t="n">
         <v>16027.443</v>
       </c>
-      <c r="I19" s="12" t="n">
+      <c r="I19" s="16" t="n">
         <v>2443389.59</v>
       </c>
-      <c r="J19" s="11" t="n">
+      <c r="J19" s="15" t="n">
         <v>18754.387</v>
       </c>
-      <c r="K19" s="12" t="n">
+      <c r="K19" s="16" t="n">
         <v>3071338.3</v>
       </c>
-      <c r="L19" s="11" t="n">
+      <c r="L19" s="15" t="n">
         <v>18419.755</v>
       </c>
-      <c r="M19" s="12" t="n">
+      <c r="M19" s="16" t="n">
         <v>3127526.56</v>
       </c>
-      <c r="N19" s="11" t="n">
+      <c r="N19" s="15" t="n">
         <v>16044.559</v>
       </c>
-      <c r="O19" s="12" t="n">
+      <c r="O19" s="16" t="n">
         <v>2737798.9</v>
       </c>
-      <c r="P19" s="11" t="n">
+      <c r="P19" s="15" t="n">
         <v>17911.601</v>
       </c>
-      <c r="Q19" s="12" t="n">
+      <c r="Q19" s="16" t="n">
         <v>2892099.01</v>
       </c>
-      <c r="R19" s="11" t="n">
+      <c r="R19" s="15" t="n">
         <v>18146.998</v>
       </c>
-      <c r="S19" s="12" t="n">
+      <c r="S19" s="16" t="n">
         <v>3032685.63</v>
       </c>
-      <c r="T19" s="12" t="n">
+      <c r="T19" s="16" t="n">
         <v>17545.99</v>
       </c>
-      <c r="U19" s="12" t="n">
+      <c r="U19" s="16" t="n">
         <v>2897499.34</v>
       </c>
-      <c r="V19" s="11" t="n">
+      <c r="V19" s="15" t="n">
         <v>17006.663</v>
       </c>
-      <c r="W19" s="12" t="n">
+      <c r="W19" s="16" t="n">
         <v>2970296.91</v>
       </c>
-      <c r="X19" s="11" t="n">
+      <c r="X19" s="15" t="n">
         <v>18424.794</v>
       </c>
-      <c r="Y19" s="12" t="n">
+      <c r="Y19" s="16" t="n">
         <v>3280335.8</v>
       </c>
-      <c r="Z19" s="11" t="n">
+      <c r="Z19" s="15" t="n">
         <v>17605.803</v>
       </c>
-      <c r="AA19" s="12" t="n">
+      <c r="AA19" s="16" t="n">
         <v>2981573.07</v>
       </c>
-      <c r="AB19" s="11" t="n">
+      <c r="AB19" s="15" t="n">
         <v>18381.357</v>
       </c>
-      <c r="AC19" s="12" t="n">
+      <c r="AC19" s="16" t="n">
         <v>3521692.85</v>
       </c>
-      <c r="AD19" s="11" t="n">
+      <c r="AD19" s="15" t="n">
         <v>13965.825</v>
       </c>
-      <c r="AE19" s="12" t="n">
+      <c r="AE19" s="16" t="n">
         <v>2496057.24</v>
       </c>
-      <c r="AF19" s="11" t="n">
+      <c r="AF19" s="15" t="n">
         <v>15036.152</v>
       </c>
-      <c r="AG19" s="12" t="n">
+      <c r="AG19" s="16" t="n">
         <v>2680040.19</v>
       </c>
-      <c r="AH19" s="11" t="n">
+      <c r="AH19" s="15" t="n">
         <v>15962.819</v>
       </c>
-      <c r="AI19" s="12" t="n">
+      <c r="AI19" s="16" t="n">
         <v>2877928.65</v>
       </c>
-      <c r="AJ19" s="11" t="n">
+      <c r="AJ19" s="15" t="n">
         <v>16066.248</v>
       </c>
-      <c r="AK19" s="12" t="n">
+      <c r="AK19" s="16" t="n">
         <v>2908479.83</v>
       </c>
-      <c r="AL19" s="11" t="n">
+      <c r="AL19" s="15" t="n">
         <v>17060.775</v>
       </c>
-      <c r="AM19" s="12" t="n">
+      <c r="AM19" s="16" t="n">
         <v>2938715.61</v>
       </c>
-      <c r="AN19" s="11" t="n">
+      <c r="AN19" s="15" t="n">
         <v>16451.808</v>
       </c>
-      <c r="AO19" s="12" t="n">
+      <c r="AO19" s="16" t="n">
         <v>2805928.73</v>
       </c>
-      <c r="AP19" s="11" t="n">
-        <v>16854.359</v>
-      </c>
-      <c r="AQ19" s="12" t="n">
-        <v>2921550.98</v>
-      </c>
-      <c r="AR19" s="11" t="n">
-        <v>320922.109</v>
-      </c>
-      <c r="AS19" s="12" t="n">
-        <v>54877569.35</v>
+      <c r="AP19" s="15" t="n">
+        <v>17615.823</v>
+      </c>
+      <c r="AQ19" s="16" t="n">
+        <v>3055077.99</v>
+      </c>
+      <c r="AR19" s="15" t="n">
+        <v>321683.573</v>
+      </c>
+      <c r="AS19" s="16" t="n">
+        <v>55011096.36</v>
       </c>
     </row>
     <row r="20" ht="11" customHeight="true">
@@ -1734,127 +1734,127 @@
       </c>
       <c r="B20" s="10" t="e"/>
       <c r="C20" s="10" t="e"/>
-      <c r="D20" s="11" t="n">
+      <c r="D20" s="15" t="n">
         <v>14981.991</v>
       </c>
-      <c r="E20" s="12" t="n">
+      <c r="E20" s="16" t="n">
         <v>2319658.05</v>
       </c>
-      <c r="F20" s="12" t="e"/>
-      <c r="G20" s="12" t="e"/>
-      <c r="H20" s="11" t="n">
+      <c r="F20" s="16" t="e"/>
+      <c r="G20" s="16" t="e"/>
+      <c r="H20" s="15" t="n">
         <v>16028.761</v>
       </c>
-      <c r="I20" s="12" t="n">
+      <c r="I20" s="16" t="n">
         <v>2476146.32</v>
       </c>
-      <c r="J20" s="11" t="n">
+      <c r="J20" s="15" t="n">
         <v>17686.006</v>
       </c>
-      <c r="K20" s="12" t="n">
+      <c r="K20" s="16" t="n">
         <v>2956801.79</v>
       </c>
-      <c r="L20" s="11" t="n">
+      <c r="L20" s="15" t="n">
         <v>17397.886</v>
       </c>
-      <c r="M20" s="12" t="n">
+      <c r="M20" s="16" t="n">
         <v>2958776.86</v>
       </c>
-      <c r="N20" s="11" t="n">
+      <c r="N20" s="15" t="n">
         <v>17403.056</v>
       </c>
-      <c r="O20" s="12" t="n">
+      <c r="O20" s="16" t="n">
         <v>2880911.13</v>
       </c>
-      <c r="P20" s="11" t="n">
+      <c r="P20" s="15" t="n">
         <v>16426.526</v>
       </c>
-      <c r="Q20" s="12" t="n">
+      <c r="Q20" s="16" t="n">
         <v>2744926.72</v>
       </c>
-      <c r="R20" s="11" t="n">
+      <c r="R20" s="15" t="n">
         <v>17410.362</v>
       </c>
-      <c r="S20" s="12" t="n">
+      <c r="S20" s="16" t="n">
         <v>2853368.41</v>
       </c>
-      <c r="T20" s="11" t="n">
+      <c r="T20" s="15" t="n">
         <v>17549.245</v>
       </c>
-      <c r="U20" s="12" t="n">
+      <c r="U20" s="16" t="n">
         <v>2852909.08</v>
       </c>
-      <c r="V20" s="11" t="n">
+      <c r="V20" s="15" t="n">
         <v>17489.381</v>
       </c>
-      <c r="W20" s="12" t="n">
+      <c r="W20" s="16" t="n">
         <v>2972738.62</v>
       </c>
-      <c r="X20" s="11" t="n">
+      <c r="X20" s="15" t="n">
         <v>18170.237</v>
       </c>
-      <c r="Y20" s="12" t="n">
+      <c r="Y20" s="16" t="n">
         <v>3066831.87</v>
       </c>
-      <c r="Z20" s="11" t="n">
+      <c r="Z20" s="15" t="n">
         <v>18563.145</v>
       </c>
-      <c r="AA20" s="12" t="n">
+      <c r="AA20" s="16" t="n">
         <v>3024600.35</v>
       </c>
-      <c r="AB20" s="11" t="n">
+      <c r="AB20" s="15" t="n">
         <v>19075.877</v>
       </c>
-      <c r="AC20" s="12" t="n">
+      <c r="AC20" s="16" t="n">
         <v>3492630.36</v>
       </c>
-      <c r="AD20" s="11" t="n">
+      <c r="AD20" s="15" t="n">
         <v>15461.705</v>
       </c>
-      <c r="AE20" s="12" t="n">
+      <c r="AE20" s="16" t="n">
         <v>2554778.94</v>
       </c>
-      <c r="AF20" s="11" t="n">
+      <c r="AF20" s="15" t="n">
         <v>17017.081</v>
       </c>
-      <c r="AG20" s="12" t="n">
+      <c r="AG20" s="16" t="n">
         <v>2824235.89</v>
       </c>
-      <c r="AH20" s="11" t="n">
+      <c r="AH20" s="15" t="n">
         <v>18474.126</v>
       </c>
-      <c r="AI20" s="12" t="n">
+      <c r="AI20" s="16" t="n">
         <v>3085117.97</v>
       </c>
-      <c r="AJ20" s="11" t="n">
+      <c r="AJ20" s="15" t="n">
         <v>18783.662</v>
       </c>
-      <c r="AK20" s="12" t="n">
+      <c r="AK20" s="16" t="n">
         <v>3091019.13</v>
       </c>
-      <c r="AL20" s="11" t="n">
+      <c r="AL20" s="15" t="n">
         <v>18764.364</v>
       </c>
-      <c r="AM20" s="12" t="n">
+      <c r="AM20" s="16" t="n">
         <v>2948973.95</v>
       </c>
-      <c r="AN20" s="12" t="n">
+      <c r="AN20" s="16" t="n">
         <v>18127.26</v>
       </c>
-      <c r="AO20" s="12" t="n">
+      <c r="AO20" s="16" t="n">
         <v>2918137.16</v>
       </c>
-      <c r="AP20" s="12" t="n">
-        <v>17564.39</v>
-      </c>
-      <c r="AQ20" s="12" t="n">
-        <v>2777867.38</v>
-      </c>
-      <c r="AR20" s="11" t="n">
-        <v>332375.061</v>
-      </c>
-      <c r="AS20" s="12" t="n">
-        <v>54800429.98</v>
+      <c r="AP20" s="15" t="n">
+        <v>18195.255</v>
+      </c>
+      <c r="AQ20" s="16" t="n">
+        <v>2869840.37</v>
+      </c>
+      <c r="AR20" s="15" t="n">
+        <v>333005.926</v>
+      </c>
+      <c r="AS20" s="16" t="n">
+        <v>54892402.97</v>
       </c>
     </row>
     <row r="21" ht="11" customHeight="true">
@@ -1863,79 +1863,79 @@
       </c>
       <c r="B21" s="10" t="e"/>
       <c r="C21" s="10" t="e"/>
-      <c r="D21" s="14" t="e"/>
-      <c r="E21" s="15" t="e"/>
-      <c r="F21" s="16" t="e"/>
-      <c r="G21" s="17" t="e"/>
-      <c r="H21" s="14" t="e"/>
-      <c r="I21" s="14" t="e"/>
-      <c r="J21" s="14" t="e"/>
-      <c r="K21" s="14" t="e"/>
-      <c r="L21" s="14" t="e"/>
-      <c r="M21" s="14" t="e"/>
-      <c r="N21" s="14" t="e"/>
-      <c r="O21" s="14" t="e"/>
-      <c r="P21" s="14" t="e"/>
-      <c r="Q21" s="14" t="e"/>
-      <c r="R21" s="14" t="e"/>
-      <c r="S21" s="14" t="e"/>
-      <c r="T21" s="14" t="e"/>
-      <c r="U21" s="14" t="e"/>
-      <c r="V21" s="14" t="e"/>
-      <c r="W21" s="14" t="e"/>
-      <c r="X21" s="14" t="e"/>
-      <c r="Y21" s="14" t="e"/>
-      <c r="Z21" s="14" t="e"/>
-      <c r="AA21" s="14" t="e"/>
-      <c r="AB21" s="14" t="e"/>
-      <c r="AC21" s="14" t="e"/>
-      <c r="AD21" s="11" t="n">
+      <c r="D21" s="11" t="e"/>
+      <c r="E21" s="12" t="e"/>
+      <c r="F21" s="13" t="e"/>
+      <c r="G21" s="14" t="e"/>
+      <c r="H21" s="11" t="e"/>
+      <c r="I21" s="11" t="e"/>
+      <c r="J21" s="11" t="e"/>
+      <c r="K21" s="11" t="e"/>
+      <c r="L21" s="11" t="e"/>
+      <c r="M21" s="11" t="e"/>
+      <c r="N21" s="11" t="e"/>
+      <c r="O21" s="11" t="e"/>
+      <c r="P21" s="11" t="e"/>
+      <c r="Q21" s="11" t="e"/>
+      <c r="R21" s="11" t="e"/>
+      <c r="S21" s="11" t="e"/>
+      <c r="T21" s="11" t="e"/>
+      <c r="U21" s="11" t="e"/>
+      <c r="V21" s="11" t="e"/>
+      <c r="W21" s="11" t="e"/>
+      <c r="X21" s="11" t="e"/>
+      <c r="Y21" s="11" t="e"/>
+      <c r="Z21" s="11" t="e"/>
+      <c r="AA21" s="11" t="e"/>
+      <c r="AB21" s="11" t="e"/>
+      <c r="AC21" s="11" t="e"/>
+      <c r="AD21" s="15" t="n">
         <v>15728.668</v>
       </c>
-      <c r="AE21" s="12" t="n">
+      <c r="AE21" s="16" t="n">
         <v>3045928.4</v>
       </c>
-      <c r="AF21" s="11" t="n">
+      <c r="AF21" s="15" t="n">
         <v>17276.114</v>
       </c>
-      <c r="AG21" s="12" t="n">
+      <c r="AG21" s="16" t="n">
         <v>3337763.59</v>
       </c>
-      <c r="AH21" s="11" t="n">
+      <c r="AH21" s="15" t="n">
         <v>19894.754</v>
       </c>
-      <c r="AI21" s="12" t="n">
+      <c r="AI21" s="16" t="n">
         <v>3702373.75</v>
       </c>
-      <c r="AJ21" s="11" t="n">
+      <c r="AJ21" s="15" t="n">
         <v>20198.742</v>
       </c>
-      <c r="AK21" s="12" t="n">
+      <c r="AK21" s="16" t="n">
         <v>3923367.73</v>
       </c>
-      <c r="AL21" s="11" t="n">
+      <c r="AL21" s="15" t="n">
         <v>22028.363</v>
       </c>
-      <c r="AM21" s="12" t="n">
+      <c r="AM21" s="16" t="n">
         <v>4032947.92</v>
       </c>
-      <c r="AN21" s="12" t="n">
+      <c r="AN21" s="16" t="n">
         <v>21676.21</v>
       </c>
-      <c r="AO21" s="12" t="n">
+      <c r="AO21" s="16" t="n">
         <v>3900603.5</v>
       </c>
-      <c r="AP21" s="11" t="n">
-        <v>21685.927</v>
-      </c>
-      <c r="AQ21" s="12" t="n">
-        <v>3917024.22</v>
-      </c>
-      <c r="AR21" s="11" t="n">
-        <v>138488.778</v>
-      </c>
-      <c r="AS21" s="12" t="n">
-        <v>25860009.11</v>
+      <c r="AP21" s="15" t="n">
+        <v>22393.376</v>
+      </c>
+      <c r="AQ21" s="16" t="n">
+        <v>4044680.01</v>
+      </c>
+      <c r="AR21" s="15" t="n">
+        <v>139196.227</v>
+      </c>
+      <c r="AS21" s="16" t="n">
+        <v>25987664.9</v>
       </c>
     </row>
     <row r="22" ht="11" customHeight="true">
@@ -1944,99 +1944,99 @@
       </c>
       <c r="B22" s="10" t="e"/>
       <c r="C22" s="10" t="e"/>
-      <c r="D22" s="12" t="n">
+      <c r="D22" s="16" t="n">
         <v>12441.59</v>
       </c>
-      <c r="E22" s="12" t="n">
+      <c r="E22" s="16" t="n">
         <v>2134248.57</v>
       </c>
-      <c r="F22" s="12" t="e"/>
-      <c r="G22" s="12" t="e"/>
-      <c r="H22" s="12" t="n">
+      <c r="F22" s="16" t="e"/>
+      <c r="G22" s="16" t="e"/>
+      <c r="H22" s="16" t="n">
         <v>13370.36</v>
       </c>
-      <c r="I22" s="12" t="n">
+      <c r="I22" s="16" t="n">
         <v>2368224.58</v>
       </c>
-      <c r="J22" s="11" t="n">
+      <c r="J22" s="15" t="n">
         <v>14379.436</v>
       </c>
-      <c r="K22" s="12" t="n">
+      <c r="K22" s="16" t="n">
         <v>2751633.39</v>
       </c>
-      <c r="L22" s="12" t="n">
+      <c r="L22" s="16" t="n">
         <v>14088.03</v>
       </c>
-      <c r="M22" s="12" t="n">
+      <c r="M22" s="16" t="n">
         <v>2741944.13</v>
       </c>
-      <c r="N22" s="11" t="n">
+      <c r="N22" s="15" t="n">
         <v>13984.503</v>
       </c>
-      <c r="O22" s="12" t="n">
+      <c r="O22" s="16" t="n">
         <v>2637972.3</v>
       </c>
-      <c r="P22" s="11" t="n">
+      <c r="P22" s="15" t="n">
         <v>15197.532</v>
       </c>
-      <c r="Q22" s="12" t="n">
+      <c r="Q22" s="16" t="n">
         <v>2620742.12</v>
       </c>
-      <c r="R22" s="11" t="n">
+      <c r="R22" s="15" t="n">
         <v>14885.346</v>
       </c>
-      <c r="S22" s="12" t="n">
+      <c r="S22" s="16" t="n">
         <v>2631348.76</v>
       </c>
-      <c r="T22" s="11" t="n">
+      <c r="T22" s="15" t="n">
         <v>15837.845</v>
       </c>
-      <c r="U22" s="12" t="n">
+      <c r="U22" s="16" t="n">
         <v>2819277.25</v>
       </c>
-      <c r="V22" s="11" t="n">
+      <c r="V22" s="15" t="n">
         <v>16109.657</v>
       </c>
-      <c r="W22" s="12" t="n">
+      <c r="W22" s="16" t="n">
         <v>2954354.85</v>
       </c>
-      <c r="X22" s="11" t="n">
+      <c r="X22" s="15" t="n">
         <v>17089.909</v>
       </c>
-      <c r="Y22" s="12" t="n">
+      <c r="Y22" s="16" t="n">
         <v>3165157.22</v>
       </c>
-      <c r="Z22" s="11" t="n">
+      <c r="Z22" s="15" t="n">
         <v>7799.484</v>
       </c>
-      <c r="AA22" s="12" t="n">
+      <c r="AA22" s="16" t="n">
         <v>1426410.39</v>
       </c>
-      <c r="AB22" s="14" t="e"/>
-      <c r="AC22" s="14" t="e"/>
-      <c r="AD22" s="14" t="e"/>
-      <c r="AE22" s="14" t="e"/>
-      <c r="AF22" s="14" t="e"/>
-      <c r="AG22" s="14" t="e"/>
-      <c r="AH22" s="14" t="e"/>
-      <c r="AI22" s="14" t="e"/>
-      <c r="AJ22" s="14" t="e"/>
-      <c r="AK22" s="14" t="e"/>
-      <c r="AL22" s="14" t="e"/>
-      <c r="AM22" s="14" t="e"/>
-      <c r="AN22" s="14" t="e"/>
-      <c r="AO22" s="14" t="e"/>
-      <c r="AP22" s="13" t="n">
-        <v>18017.1</v>
-      </c>
-      <c r="AQ22" s="12" t="n">
-        <v>3011356.34</v>
-      </c>
-      <c r="AR22" s="11" t="n">
-        <v>173200.792</v>
-      </c>
-      <c r="AS22" s="12" t="n">
-        <v>31262669.9</v>
+      <c r="AB22" s="11" t="e"/>
+      <c r="AC22" s="11" t="e"/>
+      <c r="AD22" s="11" t="e"/>
+      <c r="AE22" s="11" t="e"/>
+      <c r="AF22" s="11" t="e"/>
+      <c r="AG22" s="11" t="e"/>
+      <c r="AH22" s="11" t="e"/>
+      <c r="AI22" s="11" t="e"/>
+      <c r="AJ22" s="11" t="e"/>
+      <c r="AK22" s="11" t="e"/>
+      <c r="AL22" s="11" t="e"/>
+      <c r="AM22" s="11" t="e"/>
+      <c r="AN22" s="11" t="e"/>
+      <c r="AO22" s="11" t="e"/>
+      <c r="AP22" s="15" t="n">
+        <v>18597.141</v>
+      </c>
+      <c r="AQ22" s="16" t="n">
+        <v>3112378.15</v>
+      </c>
+      <c r="AR22" s="15" t="n">
+        <v>173780.833</v>
+      </c>
+      <c r="AS22" s="16" t="n">
+        <v>31363691.71</v>
       </c>
     </row>
     <row r="23" ht="11" customHeight="true">
@@ -2045,127 +2045,127 @@
       </c>
       <c r="B23" s="10" t="e"/>
       <c r="C23" s="10" t="e"/>
-      <c r="D23" s="11" t="n">
+      <c r="D23" s="15" t="n">
         <v>15814.762</v>
       </c>
-      <c r="E23" s="12" t="n">
+      <c r="E23" s="16" t="n">
         <v>2434709.21</v>
       </c>
-      <c r="F23" s="12" t="e"/>
-      <c r="G23" s="12" t="e"/>
-      <c r="H23" s="11" t="n">
+      <c r="F23" s="16" t="e"/>
+      <c r="G23" s="16" t="e"/>
+      <c r="H23" s="15" t="n">
         <v>17957.357</v>
       </c>
-      <c r="I23" s="12" t="n">
+      <c r="I23" s="16" t="n">
         <v>2807727.41</v>
       </c>
-      <c r="J23" s="11" t="n">
+      <c r="J23" s="15" t="n">
         <v>20366.624</v>
       </c>
-      <c r="K23" s="12" t="n">
+      <c r="K23" s="16" t="n">
         <v>3364938.73</v>
       </c>
-      <c r="L23" s="11" t="n">
+      <c r="L23" s="15" t="n">
         <v>19685.615</v>
       </c>
-      <c r="M23" s="12" t="n">
+      <c r="M23" s="16" t="n">
         <v>3476913.87</v>
       </c>
-      <c r="N23" s="11" t="n">
+      <c r="N23" s="15" t="n">
         <v>19071.782</v>
       </c>
-      <c r="O23" s="12" t="n">
+      <c r="O23" s="16" t="n">
         <v>3428974.4</v>
       </c>
-      <c r="P23" s="11" t="n">
+      <c r="P23" s="15" t="n">
         <v>19759.865</v>
       </c>
-      <c r="Q23" s="12" t="n">
+      <c r="Q23" s="16" t="n">
         <v>3402358.9</v>
       </c>
-      <c r="R23" s="11" t="n">
+      <c r="R23" s="15" t="n">
         <v>20820.541</v>
       </c>
-      <c r="S23" s="12" t="n">
+      <c r="S23" s="16" t="n">
         <v>3669269</v>
       </c>
-      <c r="T23" s="11" t="n">
+      <c r="T23" s="15" t="n">
         <v>22386.422</v>
       </c>
-      <c r="U23" s="12" t="n">
+      <c r="U23" s="16" t="n">
         <v>3748733.97</v>
       </c>
-      <c r="V23" s="11" t="n">
+      <c r="V23" s="15" t="n">
         <v>21270.432</v>
       </c>
-      <c r="W23" s="12" t="n">
+      <c r="W23" s="16" t="n">
         <v>3809823.85</v>
       </c>
-      <c r="X23" s="11" t="n">
+      <c r="X23" s="15" t="n">
         <v>20716.309</v>
       </c>
-      <c r="Y23" s="12" t="n">
+      <c r="Y23" s="16" t="n">
         <v>3649928.12</v>
       </c>
-      <c r="Z23" s="11" t="n">
+      <c r="Z23" s="15" t="n">
         <v>20516.116</v>
       </c>
-      <c r="AA23" s="12" t="n">
+      <c r="AA23" s="16" t="n">
         <v>3525723</v>
       </c>
-      <c r="AB23" s="11" t="n">
+      <c r="AB23" s="15" t="n">
         <v>21070.618</v>
       </c>
-      <c r="AC23" s="12" t="n">
+      <c r="AC23" s="16" t="n">
         <v>4198913.19</v>
       </c>
-      <c r="AD23" s="11" t="n">
+      <c r="AD23" s="15" t="n">
         <v>17252.528</v>
       </c>
-      <c r="AE23" s="12" t="n">
+      <c r="AE23" s="16" t="n">
         <v>3039601.25</v>
       </c>
-      <c r="AF23" s="11" t="n">
+      <c r="AF23" s="15" t="n">
         <v>18807.246</v>
       </c>
-      <c r="AG23" s="12" t="n">
+      <c r="AG23" s="16" t="n">
         <v>3311978.03</v>
       </c>
-      <c r="AH23" s="11" t="n">
+      <c r="AH23" s="15" t="n">
         <v>20194.988</v>
       </c>
-      <c r="AI23" s="12" t="n">
+      <c r="AI23" s="16" t="n">
         <v>3546924.68</v>
       </c>
-      <c r="AJ23" s="11" t="n">
+      <c r="AJ23" s="15" t="n">
         <v>20069.263</v>
       </c>
-      <c r="AK23" s="12" t="n">
+      <c r="AK23" s="16" t="n">
         <v>3603532.22</v>
       </c>
-      <c r="AL23" s="11" t="n">
+      <c r="AL23" s="15" t="n">
         <v>22043.786</v>
       </c>
-      <c r="AM23" s="12" t="n">
+      <c r="AM23" s="16" t="n">
         <v>3775301.44</v>
       </c>
-      <c r="AN23" s="11" t="n">
+      <c r="AN23" s="15" t="n">
         <v>22090.973</v>
       </c>
-      <c r="AO23" s="12" t="n">
+      <c r="AO23" s="16" t="n">
         <v>3807055.42</v>
       </c>
-      <c r="AP23" s="12" t="n">
-        <v>21956.97</v>
-      </c>
-      <c r="AQ23" s="12" t="n">
-        <v>3770486.59</v>
-      </c>
-      <c r="AR23" s="11" t="n">
-        <v>381852.197</v>
-      </c>
-      <c r="AS23" s="12" t="n">
-        <v>66372893.28</v>
+      <c r="AP23" s="15" t="n">
+        <v>22740.745</v>
+      </c>
+      <c r="AQ23" s="16" t="n">
+        <v>3901169.53</v>
+      </c>
+      <c r="AR23" s="15" t="n">
+        <v>382635.972</v>
+      </c>
+      <c r="AS23" s="16" t="n">
+        <v>66503576.22</v>
       </c>
     </row>
     <row r="24" ht="11" customHeight="true">
@@ -2174,127 +2174,127 @@
       </c>
       <c r="B24" s="10" t="e"/>
       <c r="C24" s="10" t="e"/>
-      <c r="D24" s="11" t="n">
+      <c r="D24" s="15" t="n">
         <v>19596.811</v>
       </c>
-      <c r="E24" s="12" t="n">
+      <c r="E24" s="16" t="n">
         <v>2848668.22</v>
       </c>
-      <c r="F24" s="12" t="e"/>
-      <c r="G24" s="12" t="e"/>
-      <c r="H24" s="11" t="n">
+      <c r="F24" s="16" t="e"/>
+      <c r="G24" s="16" t="e"/>
+      <c r="H24" s="15" t="n">
         <v>21349.528</v>
       </c>
-      <c r="I24" s="12" t="n">
+      <c r="I24" s="16" t="n">
         <v>3278553.04</v>
       </c>
-      <c r="J24" s="11" t="n">
+      <c r="J24" s="15" t="n">
         <v>23115.182</v>
       </c>
-      <c r="K24" s="12" t="n">
+      <c r="K24" s="16" t="n">
         <v>3736242.54</v>
       </c>
-      <c r="L24" s="11" t="n">
+      <c r="L24" s="15" t="n">
         <v>21573.871</v>
       </c>
-      <c r="M24" s="12" t="n">
+      <c r="M24" s="16" t="n">
         <v>3700787.81</v>
       </c>
-      <c r="N24" s="11" t="n">
+      <c r="N24" s="15" t="n">
         <v>22251.258</v>
       </c>
-      <c r="O24" s="12" t="n">
+      <c r="O24" s="16" t="n">
         <v>3890472.77</v>
       </c>
-      <c r="P24" s="12" t="n">
+      <c r="P24" s="16" t="n">
         <v>23375.14</v>
       </c>
-      <c r="Q24" s="12" t="n">
+      <c r="Q24" s="16" t="n">
         <v>3765507.84</v>
       </c>
-      <c r="R24" s="12" t="n">
+      <c r="R24" s="16" t="n">
         <v>23510.46</v>
       </c>
-      <c r="S24" s="12" t="n">
+      <c r="S24" s="16" t="n">
         <v>3789213.22</v>
       </c>
-      <c r="T24" s="11" t="n">
+      <c r="T24" s="15" t="n">
         <v>24176.134</v>
       </c>
-      <c r="U24" s="12" t="n">
+      <c r="U24" s="16" t="n">
         <v>3897651.55</v>
       </c>
-      <c r="V24" s="11" t="n">
+      <c r="V24" s="15" t="n">
         <v>21569.404</v>
       </c>
-      <c r="W24" s="12" t="n">
+      <c r="W24" s="16" t="n">
         <v>3770778.44</v>
       </c>
-      <c r="X24" s="11" t="n">
+      <c r="X24" s="15" t="n">
         <v>23706.558</v>
       </c>
-      <c r="Y24" s="12" t="n">
+      <c r="Y24" s="16" t="n">
         <v>4174764.06</v>
       </c>
-      <c r="Z24" s="11" t="n">
+      <c r="Z24" s="15" t="n">
         <v>22950.336</v>
       </c>
-      <c r="AA24" s="12" t="n">
+      <c r="AA24" s="16" t="n">
         <v>3955689.93</v>
       </c>
-      <c r="AB24" s="11" t="n">
+      <c r="AB24" s="15" t="n">
         <v>23550.831</v>
       </c>
-      <c r="AC24" s="12" t="n">
+      <c r="AC24" s="16" t="n">
         <v>4533951.28</v>
       </c>
-      <c r="AD24" s="11" t="n">
+      <c r="AD24" s="15" t="n">
         <v>19101.627</v>
       </c>
-      <c r="AE24" s="12" t="n">
+      <c r="AE24" s="16" t="n">
         <v>3395859.52</v>
       </c>
-      <c r="AF24" s="11" t="n">
+      <c r="AF24" s="15" t="n">
         <v>21803.382</v>
       </c>
-      <c r="AG24" s="12" t="n">
+      <c r="AG24" s="16" t="n">
         <v>3820280.85</v>
       </c>
-      <c r="AH24" s="11" t="n">
+      <c r="AH24" s="15" t="n">
         <v>23480.968</v>
       </c>
-      <c r="AI24" s="12" t="n">
+      <c r="AI24" s="16" t="n">
         <v>4148352.69</v>
       </c>
-      <c r="AJ24" s="13" t="n">
+      <c r="AJ24" s="17" t="n">
         <v>23417.5</v>
       </c>
-      <c r="AK24" s="12" t="n">
+      <c r="AK24" s="16" t="n">
         <v>4214021.97</v>
       </c>
-      <c r="AL24" s="11" t="n">
+      <c r="AL24" s="15" t="n">
         <v>25275.789</v>
       </c>
-      <c r="AM24" s="12" t="n">
+      <c r="AM24" s="16" t="n">
         <v>4274100.68</v>
       </c>
-      <c r="AN24" s="11" t="n">
+      <c r="AN24" s="15" t="n">
         <v>25054.873</v>
       </c>
-      <c r="AO24" s="12" t="n">
+      <c r="AO24" s="16" t="n">
         <v>4027556.05</v>
       </c>
-      <c r="AP24" s="11" t="n">
-        <v>25806.215</v>
-      </c>
-      <c r="AQ24" s="12" t="n">
-        <v>4347182.54</v>
-      </c>
-      <c r="AR24" s="11" t="n">
-        <v>434665.867</v>
-      </c>
-      <c r="AS24" s="12" t="n">
-        <v>73569635</v>
+      <c r="AP24" s="15" t="n">
+        <v>26880.046</v>
+      </c>
+      <c r="AQ24" s="16" t="n">
+        <v>4518133.39</v>
+      </c>
+      <c r="AR24" s="15" t="n">
+        <v>435739.698</v>
+      </c>
+      <c r="AS24" s="16" t="n">
+        <v>73740585.85</v>
       </c>
     </row>
     <row r="25" ht="11" customHeight="true">
@@ -2303,79 +2303,79 @@
       </c>
       <c r="B25" s="10" t="e"/>
       <c r="C25" s="10" t="e"/>
-      <c r="D25" s="14" t="e"/>
-      <c r="E25" s="15" t="e"/>
-      <c r="F25" s="16" t="e"/>
-      <c r="G25" s="17" t="e"/>
-      <c r="H25" s="14" t="e"/>
-      <c r="I25" s="14" t="e"/>
-      <c r="J25" s="14" t="e"/>
-      <c r="K25" s="14" t="e"/>
-      <c r="L25" s="14" t="e"/>
-      <c r="M25" s="14" t="e"/>
-      <c r="N25" s="14" t="e"/>
-      <c r="O25" s="14" t="e"/>
-      <c r="P25" s="14" t="e"/>
-      <c r="Q25" s="14" t="e"/>
-      <c r="R25" s="14" t="e"/>
-      <c r="S25" s="14" t="e"/>
-      <c r="T25" s="14" t="e"/>
-      <c r="U25" s="14" t="e"/>
-      <c r="V25" s="14" t="e"/>
-      <c r="W25" s="14" t="e"/>
-      <c r="X25" s="14" t="e"/>
-      <c r="Y25" s="14" t="e"/>
-      <c r="Z25" s="14" t="e"/>
-      <c r="AA25" s="14" t="e"/>
-      <c r="AB25" s="14" t="e"/>
-      <c r="AC25" s="14" t="e"/>
-      <c r="AD25" s="11" t="n">
+      <c r="D25" s="11" t="e"/>
+      <c r="E25" s="12" t="e"/>
+      <c r="F25" s="13" t="e"/>
+      <c r="G25" s="14" t="e"/>
+      <c r="H25" s="11" t="e"/>
+      <c r="I25" s="11" t="e"/>
+      <c r="J25" s="11" t="e"/>
+      <c r="K25" s="11" t="e"/>
+      <c r="L25" s="11" t="e"/>
+      <c r="M25" s="11" t="e"/>
+      <c r="N25" s="11" t="e"/>
+      <c r="O25" s="11" t="e"/>
+      <c r="P25" s="11" t="e"/>
+      <c r="Q25" s="11" t="e"/>
+      <c r="R25" s="11" t="e"/>
+      <c r="S25" s="11" t="e"/>
+      <c r="T25" s="11" t="e"/>
+      <c r="U25" s="11" t="e"/>
+      <c r="V25" s="11" t="e"/>
+      <c r="W25" s="11" t="e"/>
+      <c r="X25" s="11" t="e"/>
+      <c r="Y25" s="11" t="e"/>
+      <c r="Z25" s="11" t="e"/>
+      <c r="AA25" s="11" t="e"/>
+      <c r="AB25" s="11" t="e"/>
+      <c r="AC25" s="11" t="e"/>
+      <c r="AD25" s="15" t="n">
         <v>19014.267</v>
       </c>
-      <c r="AE25" s="12" t="n">
+      <c r="AE25" s="16" t="n">
         <v>4233863.87</v>
       </c>
-      <c r="AF25" s="11" t="n">
+      <c r="AF25" s="15" t="n">
         <v>20039.689</v>
       </c>
-      <c r="AG25" s="12" t="n">
+      <c r="AG25" s="16" t="n">
         <v>4527598.44</v>
       </c>
-      <c r="AH25" s="11" t="n">
+      <c r="AH25" s="15" t="n">
         <v>22175.817</v>
       </c>
-      <c r="AI25" s="12" t="n">
+      <c r="AI25" s="16" t="n">
         <v>4883871.31</v>
       </c>
-      <c r="AJ25" s="11" t="n">
+      <c r="AJ25" s="15" t="n">
         <v>21913.821</v>
       </c>
-      <c r="AK25" s="12" t="n">
+      <c r="AK25" s="16" t="n">
         <v>5028218.35</v>
       </c>
-      <c r="AL25" s="11" t="n">
+      <c r="AL25" s="15" t="n">
         <v>23409.417</v>
       </c>
-      <c r="AM25" s="12" t="n">
+      <c r="AM25" s="16" t="n">
         <v>5117179.31</v>
       </c>
-      <c r="AN25" s="11" t="n">
+      <c r="AN25" s="15" t="n">
         <v>24394.563</v>
       </c>
-      <c r="AO25" s="12" t="n">
+      <c r="AO25" s="16" t="n">
         <v>5258724.61</v>
       </c>
-      <c r="AP25" s="11" t="n">
-        <v>24346.215</v>
-      </c>
-      <c r="AQ25" s="12" t="n">
-        <v>5325809.77</v>
-      </c>
-      <c r="AR25" s="11" t="n">
-        <v>155293.789</v>
-      </c>
-      <c r="AS25" s="12" t="n">
-        <v>34375265.66</v>
+      <c r="AP25" s="15" t="n">
+        <v>25396.352</v>
+      </c>
+      <c r="AQ25" s="16" t="n">
+        <v>5530865.69</v>
+      </c>
+      <c r="AR25" s="15" t="n">
+        <v>156343.926</v>
+      </c>
+      <c r="AS25" s="16" t="n">
+        <v>34580321.58</v>
       </c>
     </row>
     <row r="26" ht="13" customHeight="true">
@@ -2494,17 +2494,17 @@
       <c r="AO26" s="19" t="n">
         <v>37366296.15</v>
       </c>
-      <c r="AP26" s="18" t="n">
-        <v>187370.388</v>
+      <c r="AP26" s="19" t="n">
+        <v>195060.17</v>
       </c>
       <c r="AQ26" s="19" t="n">
-        <v>32670761.46</v>
+        <v>33943007.48</v>
       </c>
       <c r="AR26" s="18" t="n">
-        <v>3628898.341</v>
+        <v>3636588.123</v>
       </c>
       <c r="AS26" s="19" t="n">
-        <v>658515160.07</v>
+        <v>659787406.09</v>
       </c>
     </row>
   </sheetData>
@@ -2532,20 +2532,20 @@
     <mergeCell ref="AR7:AS7"/>
     <mergeCell ref="E8:G8"/>
     <mergeCell ref="A9:C9"/>
-    <mergeCell ref="E9:G9"/>
     <mergeCell ref="A10:C10"/>
     <mergeCell ref="A11:C11"/>
+    <mergeCell ref="E11:G11"/>
     <mergeCell ref="A12:C12"/>
-    <mergeCell ref="E12:G12"/>
     <mergeCell ref="A13:C13"/>
+    <mergeCell ref="E13:G13"/>
     <mergeCell ref="A14:C14"/>
     <mergeCell ref="E14:G14"/>
     <mergeCell ref="A15:C15"/>
-    <mergeCell ref="E15:G15"/>
     <mergeCell ref="A16:C16"/>
+    <mergeCell ref="E16:G16"/>
     <mergeCell ref="A17:C17"/>
-    <mergeCell ref="E17:G17"/>
     <mergeCell ref="A18:C18"/>
+    <mergeCell ref="E18:G18"/>
     <mergeCell ref="A19:C19"/>
     <mergeCell ref="E19:G19"/>
     <mergeCell ref="A20:C20"/>
